--- a/Assets/Resources/Configs/Excel/EquipConfig.xlsx
+++ b/Assets/Resources/Configs/Excel/EquipConfig.xlsx
@@ -25,7 +25,7 @@
     <t>实际的Id</t>
   </si>
   <si>
-    <t>装备类型</t>
+    <t>装备部位</t>
   </si>
   <si>
     <t>合成途径</t>
@@ -43,7 +43,7 @@
     <t>id</t>
   </si>
   <si>
-    <t>type</t>
+    <t>part</t>
   </si>
   <si>
     <t>synthesisRoute</t>
@@ -513,7 +513,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="5"/>

--- a/Assets/Resources/Configs/Excel/EquipConfig.xlsx
+++ b/Assets/Resources/Configs/Excel/EquipConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>道具id</t>
   </si>
@@ -70,7 +70,7 @@
     <t>硬木制成棍身，镶嵌狼牙增加杀伤力，麻绳缠绕防滑，近战威力大但攻速慢。</t>
   </si>
   <si>
-    <t>普通短剑</t>
+    <t>灰铁弯刀</t>
   </si>
   <si>
     <t>FantasyHeroes.Basic.MeleeWeapon1H.AssassinDagger [Paint]</t>
@@ -79,6 +79,9 @@
     <t>1*2||2*4</t>
   </si>
   <si>
+    <t>铁匠打的普通弯刀，护手灰不溜秋，柄是黑棕皮缠的，镇上卫兵巡逻配的，砍个荆棘、威慑小贼，凑合用。</t>
+  </si>
+  <si>
     <t>普通铁剑</t>
   </si>
   <si>
@@ -98,6 +101,69 @@
   </si>
   <si>
     <t>1*2||2*6</t>
+  </si>
+  <si>
+    <t>以普通铁打造，弧形的护手设计独特，不仅美观，还能在战斗中更好地保护持剑者的手部</t>
+  </si>
+  <si>
+    <t>粗布护衣</t>
+  </si>
+  <si>
+    <t>FantasyHeroes.Basic.Armor.AssassinArmor [Paint]</t>
+  </si>
+  <si>
+    <t>1*2||2*7</t>
+  </si>
+  <si>
+    <t>用粗糙的布料制成，主要起到基本的防护作用，适合普通平民或低级士兵在非激烈战斗时穿着</t>
+  </si>
+  <si>
+    <t>麻布甲</t>
+  </si>
+  <si>
+    <t>FantasyHeroes.Basic.Armor.BanditLightArmor [Paint]</t>
+  </si>
+  <si>
+    <t>1*2||2*8</t>
+  </si>
+  <si>
+    <t>以麻布为主要材料，经过简单的加工和缝制，具有一定的耐磨性，能抵挡一些轻微的攻击</t>
+  </si>
+  <si>
+    <t>棉麻护铠</t>
+  </si>
+  <si>
+    <t>Extensions.AbandonedWorkshop.Armor.BattleguardArmor</t>
+  </si>
+  <si>
+    <t>1*2||2*9</t>
+  </si>
+  <si>
+    <t>将棉和麻混合制作，比单纯的麻布甲更柔软舒适，同时也有一定的防护性能，在民间或一些小型武装中较为常见。</t>
+  </si>
+  <si>
+    <t>布皮混甲</t>
+  </si>
+  <si>
+    <t>FantasyHeroes.Basic.Armor.BerserkArmor</t>
+  </si>
+  <si>
+    <t>1*2||2*10</t>
+  </si>
+  <si>
+    <t>在布衣的基础上，局部添加一些皮革部件，如肩部、胸部等，以增强防护力，是一种较为经济实用的铠甲。</t>
+  </si>
+  <si>
+    <t>赤岩兽铠</t>
+  </si>
+  <si>
+    <t>Extensions.Epic.Armor.BloodiedSpiritArmor</t>
+  </si>
+  <si>
+    <t>1*2||2*11</t>
+  </si>
+  <si>
+    <t>以兽皮为底，赤红色甲片如熔岩凝结的岩块，嵌入兽皮缝隙。黑甲部分似被烟熏火燎过，带着荒野狩猎后的粗犷气息，穿上它，仿佛能听见远古兽吼与岩崩的回响。</t>
   </si>
 </sst>
 </file>
@@ -105,8 +171,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -510,13 +576,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="3" max="3" width="63.75" customWidth="1"/>
     <col min="5" max="5" width="17.125" customWidth="1"/>
@@ -602,7 +668,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -617,6 +683,9 @@
       </c>
       <c r="E5" t="s">
         <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -624,36 +693,139 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1">
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/Excel/EquipConfig.xlsx
+++ b/Assets/Resources/Configs/Excel/EquipConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19080" windowHeight="8340"/>
+    <workbookView windowWidth="28700" windowHeight="13040"/>
   </bookViews>
   <sheets>
     <sheet name="Equip" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165">
   <si>
     <t>道具id</t>
   </si>
@@ -164,6 +164,351 @@
   </si>
   <si>
     <t>以兽皮为底，赤红色甲片如熔岩凝结的岩块，嵌入兽皮缝隙。黑甲部分似被烟熏火燎过，带着荒野狩猎后的粗犷气息，穿上它，仿佛能听见远古兽吼与岩崩的回响。</t>
+  </si>
+  <si>
+    <t>守备铠甲</t>
+  </si>
+  <si>
+    <t>Extensions.Legendary.Armor.ArmorOfAjero</t>
+  </si>
+  <si>
+    <t>1*2||2*12</t>
+  </si>
+  <si>
+    <t>专为要塞驻守士兵设计，胸肩采用加厚合金抵御刀剑箭矢，关节处用皮质拼接保留灵活性，能适配日常巡逻与城防防御等多种任务</t>
+  </si>
+  <si>
+    <t>炽羽皇冠甲</t>
+  </si>
+  <si>
+    <t>Extensions.Epic.Armor.ArmorOfFadedHeavens</t>
+  </si>
+  <si>
+    <t>1*2||2*13</t>
+  </si>
+  <si>
+    <t>金色羽翼簇拥着赤红核心，整体设计充满威严与神圣感，是传承下来的圣物，传说能让佩戴者获得超凡的勇气与守护能力。</t>
+  </si>
+  <si>
+    <t>游骑兵护甲</t>
+  </si>
+  <si>
+    <t>FantasyHeroes.Basic.Armor.LeatherLightArmor</t>
+  </si>
+  <si>
+    <t>10*5</t>
+  </si>
+  <si>
+    <t>游骑兵护甲主打轻便与功能性，深棕色调低调不张扬。 腰间皮带可灵活调节，便于收纳小物件。护臂部分能抵御一定攻击，让穿戴者在快速穿梭于复杂地形，执行巡逻、侦察等任务时，既不受束缚，又有基础的安全保障。</t>
+  </si>
+  <si>
+    <t>荒野巡守甲</t>
+  </si>
+  <si>
+    <t>FantasyHeroes.Basic.Armor.Militiaman</t>
+  </si>
+  <si>
+    <t>10*6</t>
+  </si>
+  <si>
+    <t>专为荒野环境打造，整体采用深棕色调，能在荒野中一定程度上隐蔽身形。铠甲以坚韧皮革为主体，搭配金属部件加固关键部位，既保证了灵活性，又有不错的防护力，腰间束带方便调节且可悬挂工具，助力穿戴者在荒野自如行动、应对风险。</t>
+  </si>
+  <si>
+    <t>FantasyHeroes.Basic.Armor.Rags2</t>
+  </si>
+  <si>
+    <t>10*3</t>
+  </si>
+  <si>
+    <t>普通粗布,适合平民</t>
+  </si>
+  <si>
+    <t>圣光裁决甲</t>
+  </si>
+  <si>
+    <t>Extensions.Legendary.Armor.PlatinumUnicornArmor</t>
+  </si>
+  <si>
+    <t>11*4||1*10</t>
+  </si>
+  <si>
+    <t>以神圣的金色与纯净的蓝色为主色调，周身饰有精致的圣光符文与羽翼造型，仿佛由天界神金锻造而成。不仅外观华丽威严，更蕴含着强大的圣光之力，能为穿戴者抵御邪恶侵袭，同时增幅神圣系法术的威能，是圣骑士们守护正义、裁决黑暗的至尊战铠。</t>
+  </si>
+  <si>
+    <t>圣炎裁决剑</t>
+  </si>
+  <si>
+    <t>Extensions.Epic.MeleeWeapon1H.BloodiedSpiritSword</t>
+  </si>
+  <si>
+    <t>13*3||14*4||8*3</t>
+  </si>
+  <si>
+    <t>剑身闪耀着炽热的红光，宛如燃烧的火焰永不熄灭。蓝色与金色的剑柄设计尽显高贵，融合了神圣之力与炎魔的怒火。挥舞时，能喷射出灼热的火焰，对邪恶力量有着强大的克制效果，是正义之士对抗黑暗的神兵利器。</t>
+  </si>
+  <si>
+    <t>时光凝滞铠</t>
+  </si>
+  <si>
+    <t>Extensions.Legendary.Armor.AizenHeavyArmor</t>
+  </si>
+  <si>
+    <t>12*3||4*8</t>
+  </si>
+  <si>
+    <t>注入神秘能量的铠甲，能量在内部流转不息。可大幅提升物理防御，同时铠甲散发的秘能气场，能让穿戴者在战斗中更沉稳，减少受到的冲击影响。</t>
+  </si>
+  <si>
+    <t>圣辉守护铠</t>
+  </si>
+  <si>
+    <t>Extensions.Legendary.Armor.ArcArmor</t>
+  </si>
+  <si>
+    <t>16*5||17*2</t>
+  </si>
+  <si>
+    <t>由神圣金属与辉光晶石精心打造，铠甲表面流转着圣洁的光晕。整体设计兼顾防御性能与美观，能为穿戴者提供坚实防护，是守护型角色在战斗中值得信赖的装备。</t>
+  </si>
+  <si>
+    <t>断剑</t>
+  </si>
+  <si>
+    <t>Extensions.AbandonedWorkshop.MeleeWeapon1H.BrokenSwordTypeB</t>
+  </si>
+  <si>
+    <t>断剑，非指残刃，而是以 “断破桎梏，剑指初心” 为核的江湖势力 / 故事符号 —— 它可是落魄剑客的执念图腾，是乱世中守护弱者的隐秘组织，亦或是承载着未竟使命的精神象征。</t>
+  </si>
+  <si>
+    <t>木棍</t>
+  </si>
+  <si>
+    <t>Extensions.Basic.MeleeWeapon1H.WoodenStick</t>
+  </si>
+  <si>
+    <t>6*2</t>
+  </si>
+  <si>
+    <t>路边捡的</t>
+  </si>
+  <si>
+    <t>断铁剑</t>
+  </si>
+  <si>
+    <t>Extensions.AbandonedWorkshop.MeleeWeapon1H.ElvenSword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1*2||7*2 </t>
+  </si>
+  <si>
+    <t>剑刃曾在与精铁魔物的战斗中被撞出豁口，虽不似神兵那般锋利无匹、光华夺目，但材质坚韧，经打磨后，对付寻常铁器、野兽绰绰有余，是不少新手冒险者或小镇守卫青睐的趁手兵器。</t>
+  </si>
+  <si>
+    <t>铜剑</t>
+  </si>
+  <si>
+    <t>Extensions.AbandonedWorkshop.MeleeWeapon1H.DwarvenSword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7*4||2*1 </t>
+  </si>
+  <si>
+    <t>这把剑有着厚实坚固的剑脊，能承受较强的冲击，不易折断。木质剑柄经过打磨和简单的防滑处理，握感还算舒适。它没有华丽的装饰，是铁匠铺里常见的制式武器，多为新手冒险者或普通卫兵所用，虽不算锋利无双，但胜在耐用、易维护，能在面对低阶魔物或日常守卫任务时提供可靠的助力。</t>
+  </si>
+  <si>
+    <t>锐柄长剑</t>
+  </si>
+  <si>
+    <t>Extensions.AbandonedWorkshop.MeleeWeapon1H.EdgyHandleSword</t>
+  </si>
+  <si>
+    <t>此剑剑柄设计独特，边缘线条凌厉，握持时能给人一种充满力量与锋芒的感觉。剑身修长且经过精细打磨，虽不算顶级神兵，但在应对一般的野兽袭击或小型冲突时，凭借利落的剑形和趁手的锐感剑柄，能让使用者较为顺畅地施展劈砍、突刺等招式，是不少追求战斗爽快感的冒险者初期会选择的武器。</t>
+  </si>
+  <si>
+    <t>狼纹长剑</t>
+  </si>
+  <si>
+    <t>FantasyHeroes.Thrones.MeleeWeapon1H.WolfSword [Paint]</t>
+  </si>
+  <si>
+    <t>5*2||1*3||2*1</t>
+  </si>
+  <si>
+    <t>剑身上雕刻着栩栩如生的狼纹，相传灵感源自荒野中狼群的矫健身姿与凛冽杀气。剑柄设计贴合手掌，便于握持发力，挥舞时仿佛能听到狼群的低啸。此剑不仅锋利坚韧，更被赋予了几分荒野的野性与灵动，常为崇尚自由、勇猛无畏的冒险者所喜爱，助力他们在丛林、荒原等复杂环境中斩棘破敌。</t>
+  </si>
+  <si>
+    <t>苍翼剑</t>
+  </si>
+  <si>
+    <t>Extensions.Legendary.MeleeWeapon1H.AoiWingSword</t>
+  </si>
+  <si>
+    <t>剑身以清冷的苍蓝色为基底，靠近剑柄的位置雕刻着展开的羽翼纹路，纹路边缘还嵌有细碎的银线，在光线下会泛着淡淡的光泽，仿佛振翅欲飞的苍色羽翼。剑柄采用温润的白木制成，与苍蓝剑身形成柔和对比，握持时手感轻盈且稳。此剑虽无极致锋利，却胜在挥动时灵动流畅，适合偏好敏捷招式的使用者，无论是林间穿梭斩敌，还是应对快速袭来的敌人，都能借助其 “翼” 般的轻巧感，打出利落的攻防。</t>
+  </si>
+  <si>
+    <t>短骑士剑</t>
+  </si>
+  <si>
+    <t>FantasyHeroes.Basic.MeleeWeapon1H.ShortSword [Paint]</t>
+  </si>
+  <si>
+    <t>这是骑士骑士为骑士设计的短款佩剑，剑身比常规骑士剑略短，更适合在马背上或狭窄空间中快速挥刺。剑身表面采用哑光涂装工艺，底色为深灰，两侧各有一道斜向的暗红纹章（类似骑士家族的简化徽记），既避免了金属反光暴露位置，又通过涂装彰显身份。剑柄裹着防滑皮革，末端有小巧的配重球，确保劈砍时重心稳定。虽无华丽装饰，但涂装与短刃设计完美适配骑士的实战需求，无论是冲锋时的辅助攻击，还是近战中的快速格挡，都能发挥可靠作用，是见习骑士或轻装骑士的常用配剑。</t>
+  </si>
+  <si>
+    <t>暗影獠牙刃</t>
+  </si>
+  <si>
+    <t>Extensions.AbandonedWorkshop.MeleeWeapon1H.ShadowFang</t>
+  </si>
+  <si>
+    <t>这是一柄专为潜行与突袭设计的短刃，剑身通体呈暗黑色（经特殊防锈涂层处理），刃口打磨得薄而锋利，宛如暗影中探出的野兽獠牙，挥动时几乎不反射光线，能完美融入昏暗环境。剑柄采用防滑的黑色鲛皮包裹，贴合手掌且不易打滑，尾部还配有细小的挂环（可系在腰后或靴中，方便快速拔取）。它没有长剑的威慑力，却胜在便携与隐秘，适合刺客、斥候或偏好偷袭战术的冒险者 —— 无论是穿梭于密林中突袭猎物，还是在巷战中近距离破敌，都能借助 “暗影” 的隐蔽性，让 “獠牙” 般的刃口精准命中要害，是暗战中的致命利器。</t>
+  </si>
+  <si>
+    <t>神圣龙骑剑Extensions.Legendary.MeleeWeapon1H.DivineDragoonSword</t>
+  </si>
+  <si>
+    <t>作为龙骑团的核心兵器，它不仅锋利无匹，更对邪祟、亡灵类生物有天然克制力，挥砍时能附带圣光剑气。无论是冲锋陷阵时的破阵斩击，还是守护圣所时的防御反击，都能完美适配龙骑兵的作战风格，是神圣与勇武的具象化体现，只有通过龙骑团试炼的精英战士才有资格佩戴。</t>
+  </si>
+  <si>
+    <t>维京皮盔</t>
+  </si>
+  <si>
+    <t>FantasyHeroes.Vikings.Helmet.VikingLeatherHelm</t>
+  </si>
+  <si>
+    <t>这是一款复刻维京风格的皮制头盔，主体以厚实的野牛革多层压制而成，边缘经过蜡封处理，防水且耐磨损，能有效抵御钝器冲击与飞溅的碎石。头盔仅覆盖头顶与前额，两侧保留开阔视野（适配维京人近战挥斧、挥剑的战斗习惯），前额处还缀有一块打磨过的兽骨饰片（多为鹿骨或牛角片），既作装饰，也能额外缓冲正面撞击</t>
+  </si>
+  <si>
+    <t>铁头盔</t>
+  </si>
+  <si>
+    <t>Extensions.AbandonedWorkshop.Helmet.WarriorOrcHelm</t>
+  </si>
+  <si>
+    <t>1*7</t>
+  </si>
+  <si>
+    <t>这是一顶黑色的头盔，整体造型简约实用，表面有一些使用留下的痕迹，透着久经战阵的质感。它能为佩戴者的头部提供不错的防护，适合在各类战斗场景中使用，既不会过度笨重影响行动，又能有效抵御部分攻击，是战士们可靠的护具伙伴。</t>
+  </si>
+  <si>
+    <t>壁垒守卫头盔</t>
+  </si>
+  <si>
+    <t>Extensions.AbandonedWorkshop.Helmet.WallKeeperHelm</t>
+  </si>
+  <si>
+    <t>1*4||9*3</t>
+  </si>
+  <si>
+    <t>效遮挡高空坠落的碎石与箭矢，前额处还额外加装了一块可翻转的铁制护面（放下时能护住口鼻，抬起时不影响视野）。头盔表面常印有城邦或军团的盾形徽记，既是身份标识，也象征着守卫者的责任与忠诚；内衬缝有厚实的羊毛毡，既缓冲撞击力，又能在寒冬时节保暖。它虽比轻装头盔笨重，但凭借扎实的防御性能，成为城墙戍卫、要塞驻守时的核心护具，陪伴守卫者抵御外敌攻城、巡查防御工事，是城邦安全的 “移动壁垒”。</t>
+  </si>
+  <si>
+    <t>冠军头盔</t>
+  </si>
+  <si>
+    <t>FantasyHeroes.Basic.Helmet.ChampionHelm</t>
+  </si>
+  <si>
+    <t>头盔防护覆盖全面，除基础的头顶、前额防护外，两侧还带有可调节的护耳甲片，后脑加装弧形护板，能抵御多角度攻击；内衬采用丝绸与羊毛混合材质，贴合头部且透气性好，即便长时间佩戴也不易闷热。它不仅是强大防御的护具，更被视为 “战力与荣誉的具象化象征”—— 通常只有在竞技场夺冠、立下赫赫战功的战士，或被族群推举为 “冠军” 的领袖，才有资格佩戴，每次亮相都能唤起周围对其过往战绩的敬畏。</t>
+  </si>
+  <si>
+    <t>阿杰罗之冠</t>
+  </si>
+  <si>
+    <t>Extensions.Legendary.Helmet.CrownOfAjero [FullHair]</t>
+  </si>
+  <si>
+    <t>这是阿杰罗王国王子的专属束发冠，专为王子日常束发造型设计 —— 冠身以温润的赤金打造，轮廓贴合束发后的头顶弧度，不会挤压发髻，两侧还暗藏细小的银质发扣，可悄悄固定束发的发带，既保证佩戴稳固，又不破坏整体精致感</t>
+  </si>
+  <si>
+    <t>悲悯束发冠Extensions.Legendary.Helmet.CrownOfCompassion [FullHair]</t>
+  </si>
+  <si>
+    <t>这是一顶专为心怀悲悯的王子设计的束发冠，没有传统王冠的厚重与威慑感，反而透着温润的亲和气息。冠身以哑光的白银为底，而非耀眼的赤金，表面雕刻着细腻的缠枝莲纹 —— 莲花象征 “慈悲”，纹路间还嵌有淡青色的珐琅，色调柔和得如同清晨的薄雾，恰好贴合王子悲悯众生的气质。</t>
+  </si>
+  <si>
+    <t>角斗士头盔</t>
+  </si>
+  <si>
+    <t>FantasyHeroes.Basic.Helmet.CataphractHelm [Paint]</t>
+  </si>
+  <si>
+    <t>1*5||9*2</t>
+  </si>
+  <si>
+    <t>这是一顶复刻古罗马角斗士风格的实战头盔，专为近身搏杀设计，每一处细节都透着 “为生存而战” 的粗粝与强悍。主体以加厚熟铁锻造，表面经氧化处理后泛着暗褐色光泽，边缘刻意保留了锻打时的锤纹，仿佛能让人触摸到角斗士赛前反复打磨头盔的温度。</t>
+  </si>
+  <si>
+    <t>弧光头盔</t>
+  </si>
+  <si>
+    <t>Extensions.Legendary.Helmet.ArcHelm</t>
+  </si>
+  <si>
+    <t>8*4||15*3||16*4</t>
+  </si>
+  <si>
+    <t>这是一顶融合了 “能量防护” 与 “实战需求” 的特殊头盔，主体以轻质合金打造，表面覆盖着一层半透明的蓝色晶质涂层 —— 涂层在通电或接触能量时，会沿着头盔的弧形轮廓泛起淡蓝色弧光，如同将细碎的闪电凝固在盔身表面，既醒目又暗含威慑力。</t>
+  </si>
+  <si>
+    <t>进阶斗笠帽</t>
+  </si>
+  <si>
+    <t>FantasyHeroes.Basic.Helmet.AdvancedDipperHat</t>
+  </si>
+  <si>
+    <t>这是一款在传统斗笠基础上升级改良的 “进阶斗笠帽”，兼顾实用功能与便携性，专为长期户外行动的冒险者或行者设计。斗笠主体采用三层叠加的竹篾编织，外层涂有防水的桐油，经特殊工艺处理后，既保留竹材的轻便（整体重量不足半斤），又能抵御中雨冲刷，雨水落在斗笠上会顺着凹面弧度快速滑落，不会渗入内层</t>
+  </si>
+  <si>
+    <t>破浪头盔</t>
+  </si>
+  <si>
+    <t>Extensions.Epic.Helmet.BlazewingHelmet</t>
+  </si>
+  <si>
+    <t>8*3||18*3</t>
+  </si>
+  <si>
+    <t>这款头盔以深海生物的流线外形为灵感打造，主体呈深邃的海蓝色，边缘装饰着银亮色的波浪状纹路，仿佛能折射出海浪翻涌的光泽。两侧有类似鱼鳍的精巧结构，不仅增添了灵动的视觉效果，还能在战斗中辅助佩戴者更灵活地感知周围气流与动向。头盔材质坚固且轻便，既可为头部提供可靠防护，又不会给行动带来负担，是战士在海上或水边作战时的得力护具，仿佛能助佩戴者如乘风破浪般在战场穿梭。</t>
+  </si>
+  <si>
+    <t>射手轻盔</t>
+  </si>
+  <si>
+    <t>FantasyHeroes.Basic.Helmet.ArcherHat</t>
+  </si>
+  <si>
+    <t>谁不想来顶绿油油的帽子?</t>
+  </si>
+  <si>
+    <t>齐天冠</t>
+  </si>
+  <si>
+    <t>Extensions.Legendary.Helmet.CrownOfQitian</t>
+  </si>
+  <si>
+    <t>这是一顶承载 “齐天” 气魄的神话风格冠冕，专为彰显超凡实力与自由意志的角色设计，整体造型融合了东方神话的灵动与霸气。冠身以赤金为骨，主体呈莲花座状，花瓣边缘雕刻着细密的云纹，仿佛将天边流云凝固其上；冠顶矗立着三根弧形金簪，簪头分别镶嵌红、蓝、金三色宝石 —— 红宝石似火焰，象征热血与力量；蓝宝石如寒星，代表机敏与通透；金宝石则泛着温润光泽，暗合 “齐天” 的包容与威严</t>
+  </si>
+  <si>
+    <t>兔耳发冠</t>
+  </si>
+  <si>
+    <t>Extensions.Style.Helmet.BunnyEarsB1 [Paint] [FullHair]</t>
+  </si>
+  <si>
+    <t>可爱少女专属</t>
+  </si>
+  <si>
+    <t>德鲁伊帽</t>
+  </si>
+  <si>
+    <t>FantasyHeroes.Basic.Helmet.DruidHat [Paint</t>
+  </si>
+  <si>
+    <t>19*4</t>
+  </si>
+  <si>
+    <t>这是一款造型极具冲击力的头盔，以兽类头骨为设计核心，整体呈现出森然的骨质质感。头骨的眼窝部分是镂空的黑色区域，搭配尖锐且参差的獠牙造型，仿佛能 “噬咬” 一切靠近的威胁。头盔不仅在外观上充满威慑力，材质也十分坚固，可为佩戴者提供良好的头部防护，很适合用于充满野性与危险的战斗场景，能从视觉和实际防护上，给敌人带来双重压迫感。</t>
   </si>
 </sst>
 </file>
@@ -171,12 +516,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -186,6 +531,11 @@
       <sz val="12"/>
       <name val="宋体"/>
       <family val="7"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -226,11 +576,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -576,10 +932,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -828,6 +1184,624 @@
         <v>49</v>
       </c>
     </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" ht="17.25" spans="1:6">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" ht="17.25" spans="1:6">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" ht="17.25" spans="1:6">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" ht="17.25" spans="1:6">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>127</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" ht="17.25" spans="1:6">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>139</v>
+      </c>
+      <c r="F38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" ht="15" customHeight="1" spans="1:6">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>150</v>
+      </c>
+      <c r="F41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42" t="s">
+        <v>153</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" ht="17.25" spans="1:6">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" t="s">
+        <v>156</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" t="s">
+        <v>159</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45" t="s">
+        <v>162</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>163</v>
+      </c>
+      <c r="F45" t="s">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Resources/Configs/Excel/EquipConfig.xlsx
+++ b/Assets/Resources/Configs/Excel/EquipConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28700" windowHeight="13040"/>
+    <workbookView windowWidth="18480" windowHeight="7760"/>
   </bookViews>
   <sheets>
     <sheet name="Equip" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255">
   <si>
     <t>道具id</t>
   </si>
@@ -28,6 +28,18 @@
     <t>装备部位</t>
   </si>
   <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>购买价格</t>
+  </si>
+  <si>
+    <t>出售价格</t>
+  </si>
+  <si>
+    <t>装备属性</t>
+  </si>
+  <si>
     <t>合成途径</t>
   </si>
   <si>
@@ -46,6 +58,18 @@
     <t>part</t>
   </si>
   <si>
+    <t>lv</t>
+  </si>
+  <si>
+    <t>buyPrice</t>
+  </si>
+  <si>
+    <t>sellPrice</t>
+  </si>
+  <si>
+    <t>attr</t>
+  </si>
+  <si>
     <t>synthesisRoute</t>
   </si>
   <si>
@@ -58,96 +82,156 @@
     <t>string</t>
   </si>
   <si>
-    <t>木质狼牙棒</t>
+    <t>倒刺棍棒</t>
   </si>
   <si>
     <t>Extensions.AbandonedWorkshop.MeleeWeapon1H.BarbedClub</t>
   </si>
   <si>
+    <t>1*120</t>
+  </si>
+  <si>
+    <t>1*240</t>
+  </si>
+  <si>
+    <t>0*9</t>
+  </si>
+  <si>
     <t>1*2||2*3||2*1</t>
   </si>
   <si>
     <t>硬木制成棍身，镶嵌狼牙增加杀伤力，麻绳缠绕防滑，近战威力大但攻速慢。</t>
   </si>
   <si>
-    <t>灰铁弯刀</t>
+    <t>刺客匕首</t>
   </si>
   <si>
     <t>FantasyHeroes.Basic.MeleeWeapon1H.AssassinDagger [Paint]</t>
   </si>
   <si>
+    <t>1*500</t>
+  </si>
+  <si>
+    <t>1*250</t>
+  </si>
+  <si>
+    <t>0*12||3*0.3||5*0.1</t>
+  </si>
+  <si>
     <t>1*2||2*4</t>
   </si>
   <si>
     <t>铁匠打的普通弯刀，护手灰不溜秋，柄是黑棕皮缠的，镇上卫兵巡逻配的，砍个荆棘、威慑小贼，凑合用。</t>
   </si>
   <si>
-    <t>普通铁剑</t>
+    <t>均衡之刃</t>
   </si>
   <si>
     <t>FantasyHeroes.Knights.MeleeWeapon1H.BalancedSword [Paint]</t>
   </si>
   <si>
+    <t>1*100</t>
+  </si>
+  <si>
+    <t>0*7||1*5</t>
+  </si>
+  <si>
     <t>1*2</t>
   </si>
   <si>
     <t>最基础的金属剑，铁块锻造剑身，木材制作剑柄，适合新手使用</t>
   </si>
   <si>
-    <t>普通配剑</t>
+    <t>刺剑</t>
   </si>
   <si>
     <t>FantasyHeroes.Basic.MeleeWeapon1H.Bilbo</t>
   </si>
   <si>
+    <t>1*220</t>
+  </si>
+  <si>
+    <t>1*110</t>
+  </si>
+  <si>
+    <t>0*6||3*-0.2</t>
+  </si>
+  <si>
     <t>1*2||2*6</t>
   </si>
   <si>
     <t>以普通铁打造，弧形的护手设计独特，不仅美观，还能在战斗中更好地保护持剑者的手部</t>
   </si>
   <si>
-    <t>粗布护衣</t>
+    <t>刺客铠甲）</t>
   </si>
   <si>
     <t>FantasyHeroes.Basic.Armor.AssassinArmor [Paint]</t>
   </si>
   <si>
+    <t>4*4||2*2||9*1</t>
+  </si>
+  <si>
     <t>1*2||2*7</t>
   </si>
   <si>
     <t>用粗糙的布料制成，主要起到基本的防护作用，适合普通平民或低级士兵在非激烈战斗时穿着</t>
   </si>
   <si>
-    <t>麻布甲</t>
+    <t>匪徒轻甲</t>
   </si>
   <si>
     <t>FantasyHeroes.Basic.Armor.BanditLightArmor [Paint]</t>
   </si>
   <si>
+    <t>1*210</t>
+  </si>
+  <si>
+    <t>1*105</t>
+  </si>
+  <si>
+    <t>4*3||2*1.5||3*-0.1</t>
+  </si>
+  <si>
     <t>1*2||2*8</t>
   </si>
   <si>
     <t>以麻布为主要材料，经过简单的加工和缝制，具有一定的耐磨性，能抵挡一些轻微的攻击</t>
   </si>
   <si>
-    <t>棉麻护铠</t>
+    <t>战场卫士护甲</t>
   </si>
   <si>
     <t>Extensions.AbandonedWorkshop.Armor.BattleguardArmor</t>
   </si>
   <si>
+    <t>1*620</t>
+  </si>
+  <si>
+    <t>1*310</t>
+  </si>
+  <si>
+    <t>4*10||1*35||2*0.5</t>
+  </si>
+  <si>
     <t>1*2||2*9</t>
   </si>
   <si>
     <t>将棉和麻混合制作，比单纯的麻布甲更柔软舒适，同时也有一定的防护性能，在民间或一些小型武装中较为常见。</t>
   </si>
   <si>
-    <t>布皮混甲</t>
+    <t>狂战士铠甲</t>
   </si>
   <si>
     <t>FantasyHeroes.Basic.Armor.BerserkArmor</t>
   </si>
   <si>
+    <t>1*125</t>
+  </si>
+  <si>
+    <t>4*5||1*15||0+2||2*-0.1</t>
+  </si>
+  <si>
     <t>1*2||2*10</t>
   </si>
   <si>
@@ -160,18 +244,36 @@
     <t>Extensions.Epic.Armor.BloodiedSpiritArmor</t>
   </si>
   <si>
+    <t>1*600</t>
+  </si>
+  <si>
+    <t>1*300</t>
+  </si>
+  <si>
+    <t>4*9||1*25||5*0.05||2*-0.12</t>
+  </si>
+  <si>
     <t>1*2||2*11</t>
   </si>
   <si>
     <t>以兽皮为底，赤红色甲片如熔岩凝结的岩块，嵌入兽皮缝隙。黑甲部分似被烟熏火燎过，带着荒野狩猎后的粗犷气息，穿上它，仿佛能听见远古兽吼与岩崩的回响。</t>
   </si>
   <si>
-    <t>守备铠甲</t>
+    <t>阿杰罗铠甲</t>
   </si>
   <si>
     <t>Extensions.Legendary.Armor.ArmorOfAjero</t>
   </si>
   <si>
+    <t>1*630</t>
+  </si>
+  <si>
+    <t>1*315</t>
+  </si>
+  <si>
+    <t>4*11||1*30||9*0.02||2*-0.1</t>
+  </si>
+  <si>
     <t>1*2||2*12</t>
   </si>
   <si>
@@ -184,6 +286,12 @@
     <t>Extensions.Epic.Armor.ArmorOfFadedHeavens</t>
   </si>
   <si>
+    <t>1*1200</t>
+  </si>
+  <si>
+    <t>4*18||1*50||5*0.1||2*-0.5</t>
+  </si>
+  <si>
     <t>1*2||2*13</t>
   </si>
   <si>
@@ -196,27 +304,57 @@
     <t>FantasyHeroes.Basic.Armor.LeatherLightArmor</t>
   </si>
   <si>
+    <t>1*450</t>
+  </si>
+  <si>
+    <t>1*225</t>
+  </si>
+  <si>
+    <t>4*7||1*15||9*0.03||2*0.05</t>
+  </si>
+  <si>
     <t>10*5</t>
   </si>
   <si>
     <t>游骑兵护甲主打轻便与功能性，深棕色调低调不张扬。 腰间皮带可灵活调节，便于收纳小物件。护臂部分能抵御一定攻击，让穿戴者在快速穿梭于复杂地形，执行巡逻、侦察等任务时，既不受束缚，又有基础的安全保障。</t>
   </si>
   <si>
-    <t>荒野巡守甲</t>
+    <t>民兵铠甲</t>
   </si>
   <si>
     <t>FantasyHeroes.Basic.Armor.Militiaman</t>
   </si>
   <si>
+    <t>1*230</t>
+  </si>
+  <si>
+    <t>1*115</t>
+  </si>
+  <si>
+    <t>4*4||1*18||3*-0.08</t>
+  </si>
+  <si>
     <t>10*6</t>
   </si>
   <si>
     <t>专为荒野环境打造，整体采用深棕色调，能在荒野中一定程度上隐蔽身形。铠甲以坚韧皮革为主体，搭配金属部件加固关键部位，既保证了灵活性，又有不错的防护力，腰间束带方便调节且可悬挂工具，助力穿戴者在荒野自如行动、应对风险。</t>
   </si>
   <si>
+    <t>破布衫</t>
+  </si>
+  <si>
     <t>FantasyHeroes.Basic.Armor.Rags2</t>
   </si>
   <si>
+    <t>1*60</t>
+  </si>
+  <si>
+    <t>1*30</t>
+  </si>
+  <si>
+    <t>4*2||9*0.01||2*0.1</t>
+  </si>
+  <si>
     <t>10*3</t>
   </si>
   <si>
@@ -229,6 +367,15 @@
     <t>Extensions.Legendary.Armor.PlatinumUnicornArmor</t>
   </si>
   <si>
+    <t>1*1300</t>
+  </si>
+  <si>
+    <t>1*650</t>
+  </si>
+  <si>
+    <t>4*20||1*80||2*0.2||5*0.07||9*0.03</t>
+  </si>
+  <si>
     <t>11*4||1*10</t>
   </si>
   <si>
@@ -241,30 +388,48 @@
     <t>Extensions.Epic.MeleeWeapon1H.BloodiedSpiritSword</t>
   </si>
   <si>
+    <t>1*1100</t>
+  </si>
+  <si>
+    <t>0*32||3*-0.15||5*0.06||6*0.15</t>
+  </si>
+  <si>
     <t>13*3||14*4||8*3</t>
   </si>
   <si>
     <t>剑身闪耀着炽热的红光，宛如燃烧的火焰永不熄灭。蓝色与金色的剑柄设计尽显高贵，融合了神圣之力与炎魔的怒火。挥舞时，能喷射出灼热的火焰，对邪恶力量有着强大的克制效果，是正义之士对抗黑暗的神兵利器。</t>
   </si>
   <si>
-    <t>时光凝滞铠</t>
+    <t>蓝染重甲</t>
   </si>
   <si>
     <t>Extensions.Legendary.Armor.AizenHeavyArmor</t>
   </si>
   <si>
+    <t>1*1400</t>
+  </si>
+  <si>
+    <t>1*700</t>
+  </si>
+  <si>
+    <t>4*22||1*70||3*-0.1||2*-0.3</t>
+  </si>
+  <si>
     <t>12*3||4*8</t>
   </si>
   <si>
     <t>注入神秘能量的铠甲，能量在内部流转不息。可大幅提升物理防御，同时铠甲散发的秘能气场，能让穿戴者在战斗中更沉稳，减少受到的冲击影响。</t>
   </si>
   <si>
-    <t>圣辉守护铠</t>
+    <t>弧光铠甲</t>
   </si>
   <si>
     <t>Extensions.Legendary.Armor.ArcArmor</t>
   </si>
   <si>
+    <t>4*18||1*55||5*0.06||3*-0.07||2*0.12</t>
+  </si>
+  <si>
     <t>16*5||17*2</t>
   </si>
   <si>
@@ -277,6 +442,15 @@
     <t>Extensions.AbandonedWorkshop.MeleeWeapon1H.BrokenSwordTypeB</t>
   </si>
   <si>
+    <t xml:space="preserve">1*850 </t>
+  </si>
+  <si>
+    <t>1*425</t>
+  </si>
+  <si>
+    <t>0*24||3*-0.12||5*0.04|| *8</t>
+  </si>
+  <si>
     <t>断剑，非指残刃，而是以 “断破桎梏，剑指初心” 为核的江湖势力 / 故事符号 —— 它可是落魄剑客的执念图腾，是乱世中守护弱者的隐秘组织，亦或是承载着未竟使命的精神象征。</t>
   </si>
   <si>
@@ -286,6 +460,15 @@
     <t>Extensions.Basic.MeleeWeapon1H.WoodenStick</t>
   </si>
   <si>
+    <t>1*</t>
+  </si>
+  <si>
+    <t>1*319</t>
+  </si>
+  <si>
+    <t>0*5</t>
+  </si>
+  <si>
     <t>6*2</t>
   </si>
   <si>
@@ -298,6 +481,9 @@
     <t>Extensions.AbandonedWorkshop.MeleeWeapon1H.ElvenSword</t>
   </si>
   <si>
+    <t>1*320</t>
+  </si>
+  <si>
     <t xml:space="preserve">1*2||7*2 </t>
   </si>
   <si>
@@ -310,6 +496,9 @@
     <t>Extensions.AbandonedWorkshop.MeleeWeapon1H.DwarvenSword</t>
   </si>
   <si>
+    <t>1*321</t>
+  </si>
+  <si>
     <t xml:space="preserve">7*4||2*1 </t>
   </si>
   <si>
@@ -322,6 +511,9 @@
     <t>Extensions.AbandonedWorkshop.MeleeWeapon1H.EdgyHandleSword</t>
   </si>
   <si>
+    <t>1*322</t>
+  </si>
+  <si>
     <t>此剑剑柄设计独特，边缘线条凌厉，握持时能给人一种充满力量与锋芒的感觉。剑身修长且经过精细打磨，虽不算顶级神兵，但在应对一般的野兽袭击或小型冲突时，凭借利落的剑形和趁手的锐感剑柄，能让使用者较为顺畅地施展劈砍、突刺等招式，是不少追求战斗爽快感的冒险者初期会选择的武器。</t>
   </si>
   <si>
@@ -331,6 +523,9 @@
     <t>FantasyHeroes.Thrones.MeleeWeapon1H.WolfSword [Paint]</t>
   </si>
   <si>
+    <t>1*323</t>
+  </si>
+  <si>
     <t>5*2||1*3||2*1</t>
   </si>
   <si>
@@ -343,6 +538,9 @@
     <t>Extensions.Legendary.MeleeWeapon1H.AoiWingSword</t>
   </si>
   <si>
+    <t>1*324</t>
+  </si>
+  <si>
     <t>剑身以清冷的苍蓝色为基底，靠近剑柄的位置雕刻着展开的羽翼纹路，纹路边缘还嵌有细碎的银线，在光线下会泛着淡淡的光泽，仿佛振翅欲飞的苍色羽翼。剑柄采用温润的白木制成，与苍蓝剑身形成柔和对比，握持时手感轻盈且稳。此剑虽无极致锋利，却胜在挥动时灵动流畅，适合偏好敏捷招式的使用者，无论是林间穿梭斩敌，还是应对快速袭来的敌人，都能借助其 “翼” 般的轻巧感，打出利落的攻防。</t>
   </si>
   <si>
@@ -352,6 +550,9 @@
     <t>FantasyHeroes.Basic.MeleeWeapon1H.ShortSword [Paint]</t>
   </si>
   <si>
+    <t>1*325</t>
+  </si>
+  <si>
     <t>这是骑士骑士为骑士设计的短款佩剑，剑身比常规骑士剑略短，更适合在马背上或狭窄空间中快速挥刺。剑身表面采用哑光涂装工艺，底色为深灰，两侧各有一道斜向的暗红纹章（类似骑士家族的简化徽记），既避免了金属反光暴露位置，又通过涂装彰显身份。剑柄裹着防滑皮革，末端有小巧的配重球，确保劈砍时重心稳定。虽无华丽装饰，但涂装与短刃设计完美适配骑士的实战需求，无论是冲锋时的辅助攻击，还是近战中的快速格挡，都能发挥可靠作用，是见习骑士或轻装骑士的常用配剑。</t>
   </si>
   <si>
@@ -361,12 +562,18 @@
     <t>Extensions.AbandonedWorkshop.MeleeWeapon1H.ShadowFang</t>
   </si>
   <si>
+    <t>1*326</t>
+  </si>
+  <si>
     <t>这是一柄专为潜行与突袭设计的短刃，剑身通体呈暗黑色（经特殊防锈涂层处理），刃口打磨得薄而锋利，宛如暗影中探出的野兽獠牙，挥动时几乎不反射光线，能完美融入昏暗环境。剑柄采用防滑的黑色鲛皮包裹，贴合手掌且不易打滑，尾部还配有细小的挂环（可系在腰后或靴中，方便快速拔取）。它没有长剑的威慑力，却胜在便携与隐秘，适合刺客、斥候或偏好偷袭战术的冒险者 —— 无论是穿梭于密林中突袭猎物，还是在巷战中近距离破敌，都能借助 “暗影” 的隐蔽性，让 “獠牙” 般的刃口精准命中要害，是暗战中的致命利器。</t>
   </si>
   <si>
     <t>神圣龙骑剑Extensions.Legendary.MeleeWeapon1H.DivineDragoonSword</t>
   </si>
   <si>
+    <t>1*327</t>
+  </si>
+  <si>
     <t>作为龙骑团的核心兵器，它不仅锋利无匹，更对邪祟、亡灵类生物有天然克制力，挥砍时能附带圣光剑气。无论是冲锋陷阵时的破阵斩击，还是守护圣所时的防御反击，都能完美适配龙骑兵的作战风格，是神圣与勇武的具象化体现，只有通过龙骑团试炼的精英战士才有资格佩戴。</t>
   </si>
   <si>
@@ -376,6 +583,9 @@
     <t>FantasyHeroes.Vikings.Helmet.VikingLeatherHelm</t>
   </si>
   <si>
+    <t>1*328</t>
+  </si>
+  <si>
     <t>这是一款复刻维京风格的皮制头盔，主体以厚实的野牛革多层压制而成，边缘经过蜡封处理，防水且耐磨损，能有效抵御钝器冲击与飞溅的碎石。头盔仅覆盖头顶与前额，两侧保留开阔视野（适配维京人近战挥斧、挥剑的战斗习惯），前额处还缀有一块打磨过的兽骨饰片（多为鹿骨或牛角片），既作装饰，也能额外缓冲正面撞击</t>
   </si>
   <si>
@@ -385,6 +595,9 @@
     <t>Extensions.AbandonedWorkshop.Helmet.WarriorOrcHelm</t>
   </si>
   <si>
+    <t>1*329</t>
+  </si>
+  <si>
     <t>1*7</t>
   </si>
   <si>
@@ -397,6 +610,9 @@
     <t>Extensions.AbandonedWorkshop.Helmet.WallKeeperHelm</t>
   </si>
   <si>
+    <t>1*330</t>
+  </si>
+  <si>
     <t>1*4||9*3</t>
   </si>
   <si>
@@ -409,6 +625,9 @@
     <t>FantasyHeroes.Basic.Helmet.ChampionHelm</t>
   </si>
   <si>
+    <t>1*331</t>
+  </si>
+  <si>
     <t>头盔防护覆盖全面，除基础的头顶、前额防护外，两侧还带有可调节的护耳甲片，后脑加装弧形护板，能抵御多角度攻击；内衬采用丝绸与羊毛混合材质，贴合头部且透气性好，即便长时间佩戴也不易闷热。它不仅是强大防御的护具，更被视为 “战力与荣誉的具象化象征”—— 通常只有在竞技场夺冠、立下赫赫战功的战士，或被族群推举为 “冠军” 的领袖，才有资格佩戴，每次亮相都能唤起周围对其过往战绩的敬畏。</t>
   </si>
   <si>
@@ -418,12 +637,18 @@
     <t>Extensions.Legendary.Helmet.CrownOfAjero [FullHair]</t>
   </si>
   <si>
+    <t>1*332</t>
+  </si>
+  <si>
     <t>这是阿杰罗王国王子的专属束发冠，专为王子日常束发造型设计 —— 冠身以温润的赤金打造，轮廓贴合束发后的头顶弧度，不会挤压发髻，两侧还暗藏细小的银质发扣，可悄悄固定束发的发带，既保证佩戴稳固，又不破坏整体精致感</t>
   </si>
   <si>
     <t>悲悯束发冠Extensions.Legendary.Helmet.CrownOfCompassion [FullHair]</t>
   </si>
   <si>
+    <t>1*333</t>
+  </si>
+  <si>
     <t>这是一顶专为心怀悲悯的王子设计的束发冠，没有传统王冠的厚重与威慑感，反而透着温润的亲和气息。冠身以哑光的白银为底，而非耀眼的赤金，表面雕刻着细腻的缠枝莲纹 —— 莲花象征 “慈悲”，纹路间还嵌有淡青色的珐琅，色调柔和得如同清晨的薄雾，恰好贴合王子悲悯众生的气质。</t>
   </si>
   <si>
@@ -433,6 +658,9 @@
     <t>FantasyHeroes.Basic.Helmet.CataphractHelm [Paint]</t>
   </si>
   <si>
+    <t>1*334</t>
+  </si>
+  <si>
     <t>1*5||9*2</t>
   </si>
   <si>
@@ -445,6 +673,9 @@
     <t>Extensions.Legendary.Helmet.ArcHelm</t>
   </si>
   <si>
+    <t>1*335</t>
+  </si>
+  <si>
     <t>8*4||15*3||16*4</t>
   </si>
   <si>
@@ -457,6 +688,9 @@
     <t>FantasyHeroes.Basic.Helmet.AdvancedDipperHat</t>
   </si>
   <si>
+    <t>1*336</t>
+  </si>
+  <si>
     <t>这是一款在传统斗笠基础上升级改良的 “进阶斗笠帽”，兼顾实用功能与便携性，专为长期户外行动的冒险者或行者设计。斗笠主体采用三层叠加的竹篾编织，外层涂有防水的桐油，经特殊工艺处理后，既保留竹材的轻便（整体重量不足半斤），又能抵御中雨冲刷，雨水落在斗笠上会顺着凹面弧度快速滑落，不会渗入内层</t>
   </si>
   <si>
@@ -466,6 +700,9 @@
     <t>Extensions.Epic.Helmet.BlazewingHelmet</t>
   </si>
   <si>
+    <t>1*337</t>
+  </si>
+  <si>
     <t>8*3||18*3</t>
   </si>
   <si>
@@ -478,6 +715,9 @@
     <t>FantasyHeroes.Basic.Helmet.ArcherHat</t>
   </si>
   <si>
+    <t>1*338</t>
+  </si>
+  <si>
     <t>谁不想来顶绿油油的帽子?</t>
   </si>
   <si>
@@ -487,6 +727,9 @@
     <t>Extensions.Legendary.Helmet.CrownOfQitian</t>
   </si>
   <si>
+    <t>1*339</t>
+  </si>
+  <si>
     <t>这是一顶承载 “齐天” 气魄的神话风格冠冕，专为彰显超凡实力与自由意志的角色设计，整体造型融合了东方神话的灵动与霸气。冠身以赤金为骨，主体呈莲花座状，花瓣边缘雕刻着细密的云纹，仿佛将天边流云凝固其上；冠顶矗立着三根弧形金簪，簪头分别镶嵌红、蓝、金三色宝石 —— 红宝石似火焰，象征热血与力量；蓝宝石如寒星，代表机敏与通透；金宝石则泛着温润光泽，暗合 “齐天” 的包容与威严</t>
   </si>
   <si>
@@ -496,19 +739,46 @@
     <t>Extensions.Style.Helmet.BunnyEarsB1 [Paint] [FullHair]</t>
   </si>
   <si>
+    <t>1*340</t>
+  </si>
+  <si>
     <t>可爱少女专属</t>
   </si>
   <si>
     <t>德鲁伊帽</t>
   </si>
   <si>
-    <t>FantasyHeroes.Basic.Helmet.DruidHat [Paint</t>
+    <t>FantasyHeroes.Basic.Helmet.DruidHat [Paint]</t>
+  </si>
+  <si>
+    <t>1*341</t>
   </si>
   <si>
     <t>19*4</t>
   </si>
   <si>
     <t>这是一款造型极具冲击力的头盔，以兽类头骨为设计核心，整体呈现出森然的骨质质感。头骨的眼窝部分是镂空的黑色区域，搭配尖锐且参差的獠牙造型，仿佛能 “噬咬” 一切靠近的威胁。头盔不仅在外观上充满威慑力，材质也十分坚固，可为佩戴者提供良好的头部防护，很适合用于充满野性与危险的战斗场景，能从视觉和实际防护上，给敌人带来双重压迫感。</t>
+  </si>
+  <si>
+    <t>宽刃剑</t>
+  </si>
+  <si>
+    <t>Extensions.AbandonedWorkshop.MeleeWeapon1H.Broadsword</t>
+  </si>
+  <si>
+    <t>1*200</t>
+  </si>
+  <si>
+    <t>0*7||3*-0.1</t>
+  </si>
+  <si>
+    <t>家族长剑</t>
+  </si>
+  <si>
+    <t>FantasyHeroes.Basic.MeleeWeapon1H.FamilySword</t>
+  </si>
+  <si>
+    <t>0*7</t>
   </si>
 </sst>
 </file>
@@ -583,7 +853,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -932,19 +1202,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="63.75" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="5" max="5" width="8.875" customWidth="1"/>
+    <col min="8" max="8" width="34.125" customWidth="1"/>
+    <col min="9" max="9" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -957,849 +1230,1346 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1">
         <v>7</v>
       </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1">
         <v>7</v>
       </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" t="s">
+        <v>99</v>
+      </c>
+      <c r="J15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" t="s">
+        <v>106</v>
+      </c>
+      <c r="J16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I17" t="s">
+        <v>113</v>
+      </c>
+      <c r="J17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" ht="17.25" spans="1:6">
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18" t="s">
+        <v>120</v>
+      </c>
+      <c r="J18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" ht="17.25" spans="1:10">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="D19">
         <v>7</v>
       </c>
-      <c r="E19" t="s">
-        <v>75</v>
+      <c r="E19">
+        <v>3</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>124</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I19" t="s">
+        <v>126</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I20" t="s">
+        <v>133</v>
+      </c>
+      <c r="J20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I21" t="s">
+        <v>138</v>
+      </c>
+      <c r="J21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="D22">
         <v>7</v>
       </c>
-      <c r="F22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="D23">
         <v>7</v>
       </c>
-      <c r="E23" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I23" t="s">
+        <v>151</v>
+      </c>
+      <c r="J23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="D24">
         <v>7</v>
       </c>
-      <c r="E24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" t="s">
+        <v>156</v>
+      </c>
+      <c r="J24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="D25">
         <v>7</v>
       </c>
-      <c r="E25" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" t="s">
+        <v>161</v>
+      </c>
+      <c r="J25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="D26">
         <v>7</v>
       </c>
-      <c r="F26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" ht="17.25" spans="1:6">
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="J26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" ht="17.25" spans="1:10">
       <c r="A27">
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="D27">
         <v>7</v>
       </c>
-      <c r="E27" t="s">
-        <v>105</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" t="s">
+        <v>170</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="D28">
         <v>7</v>
       </c>
-      <c r="F28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" ht="17.25" spans="1:6">
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="J28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" ht="17.25" spans="1:10">
       <c r="A29">
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="D29">
         <v>7</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="J29" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c r="D30">
         <v>7</v>
       </c>
-      <c r="F30" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="J30" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>184</v>
       </c>
       <c r="D31">
         <v>7</v>
       </c>
-      <c r="F31" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="J31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>187</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="E32" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" t="s">
+        <v>106</v>
+      </c>
+      <c r="J32" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>191</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>192</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="E33" t="s">
-        <v>123</v>
-      </c>
-      <c r="F33" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" ht="17.25" spans="1:6">
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" t="s">
+        <v>194</v>
+      </c>
+      <c r="J33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" ht="17.25" spans="1:10">
       <c r="A34">
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
+        <v>196</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
+        <v>197</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34" t="s">
-        <v>127</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" t="s">
+        <v>199</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>201</v>
       </c>
       <c r="C35" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="F35" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" ht="17.25" spans="1:6">
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="J35" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" ht="17.25" spans="1:10">
       <c r="A36">
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>132</v>
+        <v>205</v>
       </c>
       <c r="C36" t="s">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H36" s="2"/>
+      <c r="J36" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>135</v>
+        <v>209</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
-      <c r="F37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="J37" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>212</v>
       </c>
       <c r="C38" t="s">
-        <v>138</v>
+        <v>213</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="E38" t="s">
-        <v>139</v>
-      </c>
-      <c r="F38" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="39" ht="15" customHeight="1" spans="1:6">
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H38" s="2"/>
+      <c r="I38" t="s">
+        <v>215</v>
+      </c>
+      <c r="J38" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" ht="15" customHeight="1" spans="1:10">
       <c r="A39">
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>141</v>
+        <v>217</v>
       </c>
       <c r="C39" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
-      <c r="E39" t="s">
-        <v>143</v>
-      </c>
-      <c r="F39" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" t="s">
+        <v>220</v>
+      </c>
+      <c r="J39" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>145</v>
+        <v>222</v>
       </c>
       <c r="C40" t="s">
-        <v>146</v>
+        <v>223</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
-      <c r="E40" t="s">
-        <v>67</v>
-      </c>
-      <c r="F40" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H40" s="2"/>
+      <c r="I40" t="s">
+        <v>113</v>
+      </c>
+      <c r="J40" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>148</v>
+        <v>226</v>
       </c>
       <c r="C41" t="s">
-        <v>149</v>
+        <v>227</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="E41" t="s">
-        <v>150</v>
-      </c>
-      <c r="F41" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H41" s="2"/>
+      <c r="I41" t="s">
+        <v>229</v>
+      </c>
+      <c r="J41" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>152</v>
+        <v>231</v>
       </c>
       <c r="C42" t="s">
-        <v>153</v>
+        <v>232</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
-      <c r="F42" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="43" ht="17.25" spans="1:6">
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H42" s="2"/>
+      <c r="J42" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="43" ht="17.25" spans="1:10">
       <c r="A43">
         <v>40</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>155</v>
+        <v>235</v>
       </c>
       <c r="C43" t="s">
-        <v>156</v>
+        <v>236</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
-      <c r="F43" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H43" s="2"/>
+      <c r="J43" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>158</v>
+        <v>239</v>
       </c>
       <c r="C44" t="s">
-        <v>159</v>
+        <v>240</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
-      <c r="F44" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H44" s="2"/>
+      <c r="J44" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>161</v>
+        <v>243</v>
       </c>
       <c r="C45" t="s">
-        <v>162</v>
+        <v>244</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
-      <c r="E45" t="s">
-        <v>163</v>
-      </c>
-      <c r="F45" t="s">
-        <v>164</v>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H45" s="2"/>
+      <c r="I45" t="s">
+        <v>246</v>
+      </c>
+      <c r="J45" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" t="s">
+        <v>248</v>
+      </c>
+      <c r="C46" t="s">
+        <v>249</v>
+      </c>
+      <c r="D46">
+        <v>7</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" t="s">
+        <v>250</v>
+      </c>
+      <c r="H46" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" t="s">
+        <v>252</v>
+      </c>
+      <c r="C47" t="s">
+        <v>253</v>
+      </c>
+      <c r="D47">
+        <v>7</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/Excel/EquipConfig.xlsx
+++ b/Assets/Resources/Configs/Excel/EquipConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18480" windowHeight="7760"/>
+    <workbookView windowWidth="18480" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="Equip" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289">
   <si>
     <t>道具id</t>
   </si>
@@ -88,13 +88,13 @@
     <t>Extensions.AbandonedWorkshop.MeleeWeapon1H.BarbedClub</t>
   </si>
   <si>
-    <t>1*120</t>
-  </si>
-  <si>
-    <t>1*240</t>
-  </si>
-  <si>
-    <t>0*9</t>
+    <t>1*1*240</t>
+  </si>
+  <si>
+    <t>4*1*120</t>
+  </si>
+  <si>
+    <t>0*10||3*-0.3</t>
   </si>
   <si>
     <t>1*2||2*3||2*1</t>
@@ -109,10 +109,10 @@
     <t>FantasyHeroes.Basic.MeleeWeapon1H.AssassinDagger [Paint]</t>
   </si>
   <si>
-    <t>1*500</t>
-  </si>
-  <si>
-    <t>1*250</t>
+    <t>1*1*500</t>
+  </si>
+  <si>
+    <t>4*1*250</t>
   </si>
   <si>
     <t>0*12||3*0.3||5*0.1</t>
@@ -121,7 +121,7 @@
     <t>1*2||2*4</t>
   </si>
   <si>
-    <t>铁匠打的普通弯刀，护手灰不溜秋，柄是黑棕皮缠的，镇上卫兵巡逻配的，砍个荆棘、威慑小贼，凑合用。</t>
+    <t>刺客匕首，可谓是刺客们的标志性武器。它形制精巧，长度通常较短，一般在 20 至 40 厘米之间，方便刺客隐匿携带，无论是藏于袖间、靴内还是腰间，都难以被察觉。</t>
   </si>
   <si>
     <t>均衡之刃</t>
@@ -130,7 +130,10 @@
     <t>FantasyHeroes.Knights.MeleeWeapon1H.BalancedSword [Paint]</t>
   </si>
   <si>
-    <t>1*100</t>
+    <t>1*1*250</t>
+  </si>
+  <si>
+    <t>4*1*100</t>
   </si>
   <si>
     <t>0*7||1*5</t>
@@ -148,10 +151,10 @@
     <t>FantasyHeroes.Basic.MeleeWeapon1H.Bilbo</t>
   </si>
   <si>
-    <t>1*220</t>
-  </si>
-  <si>
-    <t>1*110</t>
+    <t>1*1*220</t>
+  </si>
+  <si>
+    <t>4*1*110</t>
   </si>
   <si>
     <t>0*6||3*-0.2</t>
@@ -169,7 +172,7 @@
     <t>FantasyHeroes.Basic.Armor.AssassinArmor [Paint]</t>
   </si>
   <si>
-    <t>4*4||2*2||9*1</t>
+    <t>4*4||2*0.02||7*1</t>
   </si>
   <si>
     <t>1*2||2*7</t>
@@ -184,13 +187,13 @@
     <t>FantasyHeroes.Basic.Armor.BanditLightArmor [Paint]</t>
   </si>
   <si>
-    <t>1*210</t>
-  </si>
-  <si>
-    <t>1*105</t>
-  </si>
-  <si>
-    <t>4*3||2*1.5||3*-0.1</t>
+    <t>1*1*210</t>
+  </si>
+  <si>
+    <t>4*1*105</t>
+  </si>
+  <si>
+    <t>4*3||2*0.15||3*-0.1</t>
   </si>
   <si>
     <t>1*2||2*8</t>
@@ -205,13 +208,13 @@
     <t>Extensions.AbandonedWorkshop.Armor.BattleguardArmor</t>
   </si>
   <si>
-    <t>1*620</t>
-  </si>
-  <si>
-    <t>1*310</t>
-  </si>
-  <si>
-    <t>4*10||1*35||2*0.5</t>
+    <t>1*1*620</t>
+  </si>
+  <si>
+    <t>4*1*310</t>
+  </si>
+  <si>
+    <t>4*10||1*35||2*0.2</t>
   </si>
   <si>
     <t>1*2||2*9</t>
@@ -226,7 +229,7 @@
     <t>FantasyHeroes.Basic.Armor.BerserkArmor</t>
   </si>
   <si>
-    <t>1*125</t>
+    <t>4*1*125</t>
   </si>
   <si>
     <t>4*5||1*15||0+2||2*-0.1</t>
@@ -244,10 +247,10 @@
     <t>Extensions.Epic.Armor.BloodiedSpiritArmor</t>
   </si>
   <si>
-    <t>1*600</t>
-  </si>
-  <si>
-    <t>1*300</t>
+    <t>1*1*600</t>
+  </si>
+  <si>
+    <t>4*1*300</t>
   </si>
   <si>
     <t>4*9||1*25||5*0.05||2*-0.12</t>
@@ -265,13 +268,13 @@
     <t>Extensions.Legendary.Armor.ArmorOfAjero</t>
   </si>
   <si>
-    <t>1*630</t>
-  </si>
-  <si>
-    <t>1*315</t>
-  </si>
-  <si>
-    <t>4*11||1*30||9*0.02||2*-0.1</t>
+    <t>1*1*630</t>
+  </si>
+  <si>
+    <t>4*1*315</t>
+  </si>
+  <si>
+    <t>4*11||1*30||7*0.02||2*-0.1</t>
   </si>
   <si>
     <t>1*2||2*12</t>
@@ -286,10 +289,13 @@
     <t>Extensions.Epic.Armor.ArmorOfFadedHeavens</t>
   </si>
   <si>
-    <t>1*1200</t>
-  </si>
-  <si>
-    <t>4*18||1*50||5*0.1||2*-0.5</t>
+    <t>1*1*1200</t>
+  </si>
+  <si>
+    <t>4*1*600</t>
+  </si>
+  <si>
+    <t>4*18||1*50||5*0.1||2*-0.05</t>
   </si>
   <si>
     <t>1*2||2*13</t>
@@ -304,13 +310,13 @@
     <t>FantasyHeroes.Basic.Armor.LeatherLightArmor</t>
   </si>
   <si>
-    <t>1*450</t>
-  </si>
-  <si>
-    <t>1*225</t>
-  </si>
-  <si>
-    <t>4*7||1*15||9*0.03||2*0.05</t>
+    <t>1*1*450</t>
+  </si>
+  <si>
+    <t>4*1*225</t>
+  </si>
+  <si>
+    <t>4*7||1*15||7*0.03||2*0.05</t>
   </si>
   <si>
     <t>10*5</t>
@@ -325,10 +331,10 @@
     <t>FantasyHeroes.Basic.Armor.Militiaman</t>
   </si>
   <si>
-    <t>1*230</t>
-  </si>
-  <si>
-    <t>1*115</t>
+    <t>1*1*230</t>
+  </si>
+  <si>
+    <t>4*1*115</t>
   </si>
   <si>
     <t>4*4||1*18||3*-0.08</t>
@@ -346,13 +352,13 @@
     <t>FantasyHeroes.Basic.Armor.Rags2</t>
   </si>
   <si>
-    <t>1*60</t>
-  </si>
-  <si>
-    <t>1*30</t>
-  </si>
-  <si>
-    <t>4*2||9*0.01||2*0.1</t>
+    <t>1*1*60</t>
+  </si>
+  <si>
+    <t>4*1*30</t>
+  </si>
+  <si>
+    <t>4*2||7*0.01||2*0.1</t>
   </si>
   <si>
     <t>10*3</t>
@@ -367,13 +373,13 @@
     <t>Extensions.Legendary.Armor.PlatinumUnicornArmor</t>
   </si>
   <si>
-    <t>1*1300</t>
-  </si>
-  <si>
-    <t>1*650</t>
-  </si>
-  <si>
-    <t>4*20||1*80||2*0.2||5*0.07||9*0.03</t>
+    <t>1*1*1300</t>
+  </si>
+  <si>
+    <t>4*1*650</t>
+  </si>
+  <si>
+    <t>4*20||1*80||2*0.2||5*0.07||7*0.03</t>
   </si>
   <si>
     <t>11*4||1*10</t>
@@ -388,7 +394,10 @@
     <t>Extensions.Epic.MeleeWeapon1H.BloodiedSpiritSword</t>
   </si>
   <si>
-    <t>1*1100</t>
+    <t>1*1*1100</t>
+  </si>
+  <si>
+    <t>4*1*500</t>
   </si>
   <si>
     <t>0*32||3*-0.15||5*0.06||6*0.15</t>
@@ -406,10 +415,10 @@
     <t>Extensions.Legendary.Armor.AizenHeavyArmor</t>
   </si>
   <si>
-    <t>1*1400</t>
-  </si>
-  <si>
-    <t>1*700</t>
+    <t>1*1*1400</t>
+  </si>
+  <si>
+    <t>4*1*700</t>
   </si>
   <si>
     <t>4*22||1*70||3*-0.1||2*-0.3</t>
@@ -442,13 +451,13 @@
     <t>Extensions.AbandonedWorkshop.MeleeWeapon1H.BrokenSwordTypeB</t>
   </si>
   <si>
-    <t xml:space="preserve">1*850 </t>
-  </si>
-  <si>
-    <t>1*425</t>
-  </si>
-  <si>
-    <t>0*24||3*-0.12||5*0.04|| *8</t>
+    <t xml:space="preserve">1*1*850 </t>
+  </si>
+  <si>
+    <t>4*1*425</t>
+  </si>
+  <si>
+    <t>0*12||2*0.04||3*0.2||5*0.03</t>
   </si>
   <si>
     <t>断剑，非指残刃，而是以 “断破桎梏，剑指初心” 为核的江湖势力 / 故事符号 —— 它可是落魄剑客的执念图腾，是乱世中守护弱者的隐秘组织，亦或是承载着未竟使命的精神象征。</t>
@@ -460,10 +469,7 @@
     <t>Extensions.Basic.MeleeWeapon1H.WoodenStick</t>
   </si>
   <si>
-    <t>1*</t>
-  </si>
-  <si>
-    <t>1*319</t>
+    <t>1*1*100</t>
   </si>
   <si>
     <t>0*5</t>
@@ -475,13 +481,19 @@
     <t>路边捡的</t>
   </si>
   <si>
-    <t>断铁剑</t>
+    <t>精灵剑</t>
   </si>
   <si>
     <t>Extensions.AbandonedWorkshop.MeleeWeapon1H.ElvenSword</t>
   </si>
   <si>
-    <t>1*320</t>
+    <t>1*1*110</t>
+  </si>
+  <si>
+    <t>4*1*55</t>
+  </si>
+  <si>
+    <t>0*7</t>
   </si>
   <si>
     <t xml:space="preserve">1*2||7*2 </t>
@@ -490,13 +502,13 @@
     <t>剑刃曾在与精铁魔物的战斗中被撞出豁口，虽不似神兵那般锋利无匹、光华夺目，但材质坚韧，经打磨后，对付寻常铁器、野兽绰绰有余，是不少新手冒险者或小镇守卫青睐的趁手兵器。</t>
   </si>
   <si>
-    <t>铜剑</t>
+    <t>矮人剑</t>
   </si>
   <si>
     <t>Extensions.AbandonedWorkshop.MeleeWeapon1H.DwarvenSword</t>
   </si>
   <si>
-    <t>1*321</t>
+    <t>0*18||3*-0.08||6*0.09</t>
   </si>
   <si>
     <t xml:space="preserve">7*4||2*1 </t>
@@ -505,13 +517,19 @@
     <t>这把剑有着厚实坚固的剑脊，能承受较强的冲击，不易折断。木质剑柄经过打磨和简单的防滑处理，握感还算舒适。它没有华丽的装饰，是铁匠铺里常见的制式武器，多为新手冒险者或普通卫兵所用，虽不算锋利无双，但胜在耐用、易维护，能在面对低阶魔物或日常守卫任务时提供可靠的助力。</t>
   </si>
   <si>
-    <t>锐柄长剑</t>
+    <t>锋芒柄剑</t>
   </si>
   <si>
     <t>Extensions.AbandonedWorkshop.MeleeWeapon1H.EdgyHandleSword</t>
   </si>
   <si>
-    <t>1*322</t>
+    <t>1*1*750</t>
+  </si>
+  <si>
+    <t>4*1*375</t>
+  </si>
+  <si>
+    <t>0*16||3*-0.07||6*0.12||5*0.03</t>
   </si>
   <si>
     <t>此剑剑柄设计独特，边缘线条凌厉，握持时能给人一种充满力量与锋芒的感觉。剑身修长且经过精细打磨，虽不算顶级神兵，但在应对一般的野兽袭击或小型冲突时，凭借利落的剑形和趁手的锐感剑柄，能让使用者较为顺畅地施展劈砍、突刺等招式，是不少追求战斗爽快感的冒险者初期会选择的武器。</t>
@@ -523,7 +541,13 @@
     <t>FantasyHeroes.Thrones.MeleeWeapon1H.WolfSword [Paint]</t>
   </si>
   <si>
-    <t>1*323</t>
+    <t>1*1*800</t>
+  </si>
+  <si>
+    <t>4*1*400</t>
+  </si>
+  <si>
+    <t>0*18||3*-0.08||5*0.04||2*0.05</t>
   </si>
   <si>
     <t>5*2||1*3||2*1</t>
@@ -538,7 +562,13 @@
     <t>Extensions.Legendary.MeleeWeapon1H.AoiWingSword</t>
   </si>
   <si>
-    <t>1*324</t>
+    <t>1*1*2800</t>
+  </si>
+  <si>
+    <t>4*1*1400</t>
+  </si>
+  <si>
+    <t>0*62||3*-0.15||5*0.08||*60.18||2*0.11</t>
   </si>
   <si>
     <t>剑身以清冷的苍蓝色为基底，靠近剑柄的位置雕刻着展开的羽翼纹路，纹路边缘还嵌有细碎的银线，在光线下会泛着淡淡的光泽，仿佛振翅欲飞的苍色羽翼。剑柄采用温润的白木制成，与苍蓝剑身形成柔和对比，握持时手感轻盈且稳。此剑虽无极致锋利，却胜在挥动时灵动流畅，适合偏好敏捷招式的使用者，无论是林间穿梭斩敌，还是应对快速袭来的敌人，都能借助其 “翼” 般的轻巧感，打出利落的攻防。</t>
@@ -550,7 +580,13 @@
     <t>FantasyHeroes.Basic.MeleeWeapon1H.ShortSword [Paint]</t>
   </si>
   <si>
-    <t>1*325</t>
+    <t>1*1*720</t>
+  </si>
+  <si>
+    <t>4*1*360</t>
+  </si>
+  <si>
+    <t>0*14||3*-0.1||5*0.03</t>
   </si>
   <si>
     <t>这是骑士骑士为骑士设计的短款佩剑，剑身比常规骑士剑略短，更适合在马背上或狭窄空间中快速挥刺。剑身表面采用哑光涂装工艺，底色为深灰，两侧各有一道斜向的暗红纹章（类似骑士家族的简化徽记），既避免了金属反光暴露位置，又通过涂装彰显身份。剑柄裹着防滑皮革，末端有小巧的配重球，确保劈砍时重心稳定。虽无华丽装饰，但涂装与短刃设计完美适配骑士的实战需求，无论是冲锋时的辅助攻击，还是近战中的快速格挡，都能发挥可靠作用，是见习骑士或轻装骑士的常用配剑。</t>
@@ -562,7 +598,13 @@
     <t>Extensions.AbandonedWorkshop.MeleeWeapon1H.ShadowFang</t>
   </si>
   <si>
-    <t>1*326</t>
+    <t>1*1*3800</t>
+  </si>
+  <si>
+    <t>4*1*1900</t>
+  </si>
+  <si>
+    <t>0*32||3-0.12||5*0.06||2*0.09</t>
   </si>
   <si>
     <t>这是一柄专为潜行与突袭设计的短刃，剑身通体呈暗黑色（经特殊防锈涂层处理），刃口打磨得薄而锋利，宛如暗影中探出的野兽獠牙，挥动时几乎不反射光线，能完美融入昏暗环境。剑柄采用防滑的黑色鲛皮包裹，贴合手掌且不易打滑，尾部还配有细小的挂环（可系在腰后或靴中，方便快速拔取）。它没有长剑的威慑力，却胜在便携与隐秘，适合刺客、斥候或偏好偷袭战术的冒险者 —— 无论是穿梭于密林中突袭猎物，还是在巷战中近距离破敌，都能借助 “暗影” 的隐蔽性，让 “獠牙” 般的刃口精准命中要害，是暗战中的致命利器。</t>
@@ -571,7 +613,16 @@
     <t>神圣龙骑剑Extensions.Legendary.MeleeWeapon1H.DivineDragoonSword</t>
   </si>
   <si>
-    <t>1*327</t>
+    <t>Extensions.Legendary.MeleeWeaponIH.DivineDragoonSword</t>
+  </si>
+  <si>
+    <t>1*1*4200</t>
+  </si>
+  <si>
+    <t>4*1*2100</t>
+  </si>
+  <si>
+    <t>0*35||3*-0.13||5*0.07||7*0.12</t>
   </si>
   <si>
     <t>作为龙骑团的核心兵器，它不仅锋利无匹，更对邪祟、亡灵类生物有天然克制力，挥砍时能附带圣光剑气。无论是冲锋陷阵时的破阵斩击，还是守护圣所时的防御反击，都能完美适配龙骑兵的作战风格，是神圣与勇武的具象化体现，只有通过龙骑团试炼的精英战士才有资格佩戴。</t>
@@ -583,19 +634,19 @@
     <t>FantasyHeroes.Vikings.Helmet.VikingLeatherHelm</t>
   </si>
   <si>
-    <t>1*328</t>
+    <t>1*8||4*0.05||6*-0.02</t>
   </si>
   <si>
     <t>这是一款复刻维京风格的皮制头盔，主体以厚实的野牛革多层压制而成，边缘经过蜡封处理，防水且耐磨损，能有效抵御钝器冲击与飞溅的碎石。头盔仅覆盖头顶与前额，两侧保留开阔视野（适配维京人近战挥斧、挥剑的战斗习惯），前额处还缀有一块打磨过的兽骨饰片（多为鹿骨或牛角片），既作装饰，也能额外缓冲正面撞击</t>
   </si>
   <si>
-    <t>铁头盔</t>
+    <t>兽人战士头盔</t>
   </si>
   <si>
     <t>Extensions.AbandonedWorkshop.Helmet.WarriorOrcHelm</t>
   </si>
   <si>
-    <t>1*329</t>
+    <t>1*9||8*0.04</t>
   </si>
   <si>
     <t>1*7</t>
@@ -610,7 +661,13 @@
     <t>Extensions.AbandonedWorkshop.Helmet.WallKeeperHelm</t>
   </si>
   <si>
-    <t>1*330</t>
+    <t>1*1*580</t>
+  </si>
+  <si>
+    <t>4*1*290</t>
+  </si>
+  <si>
+    <t>1*16||4*0.06||7*0.05</t>
   </si>
   <si>
     <t>1*4||9*3</t>
@@ -625,7 +682,13 @@
     <t>FantasyHeroes.Basic.Helmet.ChampionHelm</t>
   </si>
   <si>
-    <t>1*331</t>
+    <t>1*1*260</t>
+  </si>
+  <si>
+    <t>4*1*130</t>
+  </si>
+  <si>
+    <t>1*10||5*0.04||7*-0.01</t>
   </si>
   <si>
     <t>头盔防护覆盖全面，除基础的头顶、前额防护外，两侧还带有可调节的护耳甲片，后脑加装弧形护板，能抵御多角度攻击；内衬采用丝绸与羊毛混合材质，贴合头部且透气性好，即便长时间佩戴也不易闷热。它不仅是强大防御的护具，更被视为 “战力与荣誉的具象化象征”—— 通常只有在竞技场夺冠、立下赫赫战功的战士，或被族群推举为 “冠军” 的领袖，才有资格佩戴，每次亮相都能唤起周围对其过往战绩的敬畏。</t>
@@ -637,16 +700,28 @@
     <t>Extensions.Legendary.Helmet.CrownOfAjero [FullHair]</t>
   </si>
   <si>
-    <t>1*332</t>
+    <t>1*1*650</t>
+  </si>
+  <si>
+    <t>4*1*325</t>
+  </si>
+  <si>
+    <t>1*18||5*0.06||4*0.05</t>
   </si>
   <si>
     <t>这是阿杰罗王国王子的专属束发冠，专为王子日常束发造型设计 —— 冠身以温润的赤金打造，轮廓贴合束发后的头顶弧度，不会挤压发髻，两侧还暗藏细小的银质发扣，可悄悄固定束发的发带，既保证佩戴稳固，又不破坏整体精致感</t>
   </si>
   <si>
-    <t>悲悯束发冠Extensions.Legendary.Helmet.CrownOfCompassion [FullHair]</t>
-  </si>
-  <si>
-    <t>1*333</t>
+    <t>怜悯王冠Extensions.Legendary.Helmet.CrownOfCompassion [FullHair]</t>
+  </si>
+  <si>
+    <t>1*1*1900</t>
+  </si>
+  <si>
+    <t>4*1*950</t>
+  </si>
+  <si>
+    <t>1*27||5*0.08||4*0.07||2*0.05</t>
   </si>
   <si>
     <t>这是一顶专为心怀悲悯的王子设计的束发冠，没有传统王冠的厚重与威慑感，反而透着温润的亲和气息。冠身以哑光的白银为底，而非耀眼的赤金，表面雕刻着细腻的缠枝莲纹 —— 莲花象征 “慈悲”，纹路间还嵌有淡青色的珐琅，色调柔和得如同清晨的薄雾，恰好贴合王子悲悯众生的气质。</t>
@@ -658,7 +733,13 @@
     <t>FantasyHeroes.Basic.Helmet.CataphractHelm [Paint]</t>
   </si>
   <si>
-    <t>1*334</t>
+    <t>1*1*2000</t>
+  </si>
+  <si>
+    <t>4*1*1000</t>
+  </si>
+  <si>
+    <t>1*30||2*0.14||4*0.07</t>
   </si>
   <si>
     <t>1*5||9*2</t>
@@ -673,7 +754,13 @@
     <t>Extensions.Legendary.Helmet.ArcHelm</t>
   </si>
   <si>
-    <t>1*335</t>
+    <t>1*1*2300</t>
+  </si>
+  <si>
+    <t>4*1*1150</t>
+  </si>
+  <si>
+    <t>1*28||2*0.19||4*0.06||3*0.05</t>
   </si>
   <si>
     <t>8*4||15*3||16*4</t>
@@ -688,7 +775,7 @@
     <t>FantasyHeroes.Basic.Helmet.AdvancedDipperHat</t>
   </si>
   <si>
-    <t>1*336</t>
+    <t>1*48||2*0.08||3*3</t>
   </si>
   <si>
     <t>这是一款在传统斗笠基础上升级改良的 “进阶斗笠帽”，兼顾实用功能与便携性，专为长期户外行动的冒险者或行者设计。斗笠主体采用三层叠加的竹篾编织，外层涂有防水的桐油，经特殊工艺处理后，既保留竹材的轻便（整体重量不足半斤），又能抵御中雨冲刷，雨水落在斗笠上会顺着凹面弧度快速滑落，不会渗入内层</t>
@@ -700,7 +787,13 @@
     <t>Extensions.Epic.Helmet.BlazewingHelmet</t>
   </si>
   <si>
-    <t>1*337</t>
+    <t>1*1*2400</t>
+  </si>
+  <si>
+    <t>4*1*1200</t>
+  </si>
+  <si>
+    <t>1*55||2*0.16||3*0.12||4*5</t>
   </si>
   <si>
     <t>8*3||18*3</t>
@@ -715,7 +808,7 @@
     <t>FantasyHeroes.Basic.Helmet.ArcherHat</t>
   </si>
   <si>
-    <t>1*338</t>
+    <t>1*26</t>
   </si>
   <si>
     <t>谁不想来顶绿油油的帽子?</t>
@@ -727,7 +820,13 @@
     <t>Extensions.Legendary.Helmet.CrownOfQitian</t>
   </si>
   <si>
-    <t>1*339</t>
+    <t>1*1*3300</t>
+  </si>
+  <si>
+    <t>4*1*1650</t>
+  </si>
+  <si>
+    <t>1*48||5*0.20||4*0.17||2*0.10</t>
   </si>
   <si>
     <t>这是一顶承载 “齐天” 气魄的神话风格冠冕，专为彰显超凡实力与自由意志的角色设计，整体造型融合了东方神话的灵动与霸气。冠身以赤金为骨，主体呈莲花座状，花瓣边缘雕刻着细密的云纹，仿佛将天边流云凝固其上；冠顶矗立着三根弧形金簪，簪头分别镶嵌红、蓝、金三色宝石 —— 红宝石似火焰，象征热血与力量；蓝宝石如寒星，代表机敏与通透；金宝石则泛着温润光泽，暗合 “齐天” 的包容与威严</t>
@@ -739,7 +838,7 @@
     <t>Extensions.Style.Helmet.BunnyEarsB1 [Paint] [FullHair]</t>
   </si>
   <si>
-    <t>1*340</t>
+    <t>1*25||2*0.07</t>
   </si>
   <si>
     <t>可爱少女专属</t>
@@ -751,7 +850,7 @@
     <t>FantasyHeroes.Basic.Helmet.DruidHat [Paint]</t>
   </si>
   <si>
-    <t>1*341</t>
+    <t>1*26||3*1</t>
   </si>
   <si>
     <t>19*4</t>
@@ -766,7 +865,10 @@
     <t>Extensions.AbandonedWorkshop.MeleeWeapon1H.Broadsword</t>
   </si>
   <si>
-    <t>1*200</t>
+    <t>1*1*190</t>
+  </si>
+  <si>
+    <t>4*1*200</t>
   </si>
   <si>
     <t>0*7||3*-0.1</t>
@@ -778,7 +880,7 @@
     <t>FantasyHeroes.Basic.MeleeWeapon1H.FamilySword</t>
   </si>
   <si>
-    <t>0*7</t>
+    <t>1*1*200</t>
   </si>
 </sst>
 </file>
@@ -786,10 +888,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -1204,8 +1306,8 @@
   <sheetPr/>
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1394,19 +1496,19 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1414,10 +1516,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1">
         <v>7</v>
@@ -1426,19 +1528,19 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1446,10 +1548,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1458,19 +1560,19 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1478,10 +1580,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1490,19 +1592,19 @@
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1510,10 +1612,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1522,19 +1624,19 @@
         <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1542,10 +1644,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1554,19 +1656,19 @@
         <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1574,10 +1676,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1586,19 +1688,19 @@
         <v>2</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1606,10 +1708,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1618,19 +1720,19 @@
         <v>2</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1638,10 +1740,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1650,19 +1752,19 @@
         <v>3</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1670,10 +1772,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1682,19 +1784,19 @@
         <v>2</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1702,10 +1804,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1714,19 +1816,19 @@
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1734,10 +1836,10 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1746,19 +1848,19 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I17" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J17" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1766,10 +1868,10 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1778,19 +1880,19 @@
         <v>3</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="1:10">
@@ -1798,10 +1900,10 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D19">
         <v>7</v>
@@ -1810,19 +1912,19 @@
         <v>3</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I19" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1830,10 +1932,10 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1842,19 +1944,19 @@
         <v>3</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I20" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J20" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1862,10 +1964,10 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C21" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1874,19 +1976,19 @@
         <v>3</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I21" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J21" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1894,10 +1996,10 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D22">
         <v>7</v>
@@ -1906,16 +2008,16 @@
         <v>2</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J22" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1923,10 +2025,10 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C23" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D23">
         <v>7</v>
@@ -1935,19 +2037,19 @@
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I23" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="J23" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1955,10 +2057,10 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C24" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D24">
         <v>7</v>
@@ -1967,17 +2069,19 @@
         <v>1</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="H24" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="I24" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="J24" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1985,10 +2089,10 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C25" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D25">
         <v>7</v>
@@ -1996,16 +2100,20 @@
       <c r="E25">
         <v>2</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="G25" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="H25" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="I25" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="J25" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2013,10 +2121,10 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C26" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D26">
         <v>7</v>
@@ -2024,13 +2132,17 @@
       <c r="E26">
         <v>2</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="G26" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H26" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="J26" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" ht="17.25" spans="1:10">
@@ -2038,10 +2150,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C27" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D27">
         <v>7</v>
@@ -2049,16 +2161,20 @@
       <c r="E27">
         <v>2</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="G27" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H27" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="I27" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2066,10 +2182,10 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C28" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="D28">
         <v>7</v>
@@ -2077,13 +2193,17 @@
       <c r="E28">
         <v>4</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="G28" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H28" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="J28" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" ht="17.25" spans="1:10">
@@ -2091,10 +2211,10 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="C29" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="D29">
         <v>7</v>
@@ -2102,13 +2222,17 @@
       <c r="E29">
         <v>2</v>
       </c>
-      <c r="F29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="G29" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H29" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="J29" s="3" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2116,10 +2240,10 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C30" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="D30">
         <v>7</v>
@@ -2127,13 +2251,17 @@
       <c r="E30">
         <v>3</v>
       </c>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="G30" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H30" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="J30" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2141,7 +2269,10 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>184</v>
+        <v>198</v>
+      </c>
+      <c r="C31" t="s">
+        <v>199</v>
       </c>
       <c r="D31">
         <v>7</v>
@@ -2149,13 +2280,17 @@
       <c r="E31">
         <v>3</v>
       </c>
-      <c r="F31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>200</v>
+      </c>
       <c r="G31" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H31" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="J31" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2163,10 +2298,10 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="C32" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2174,16 +2309,20 @@
       <c r="E32">
         <v>1</v>
       </c>
-      <c r="F32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="G32" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="H32" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="I32" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J32" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2191,10 +2330,10 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="C33" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2202,16 +2341,20 @@
       <c r="E33">
         <v>1</v>
       </c>
-      <c r="F33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="G33" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H33" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="I33" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="J33" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" ht="17.25" spans="1:10">
@@ -2219,10 +2362,10 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="C34" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2230,16 +2373,20 @@
       <c r="E34">
         <v>2</v>
       </c>
-      <c r="F34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="G34" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="H34" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="I34" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2247,10 +2394,10 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="C35" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2258,13 +2405,17 @@
       <c r="E35">
         <v>1</v>
       </c>
-      <c r="F35" s="2"/>
+      <c r="F35" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="G35" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="H35" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="J35" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" ht="17.25" spans="1:10">
@@ -2272,10 +2423,10 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="C36" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2283,13 +2434,17 @@
       <c r="E36">
         <v>2</v>
       </c>
-      <c r="F36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>228</v>
+      </c>
       <c r="G36" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H36" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="J36" s="3" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2297,7 +2452,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -2305,13 +2460,17 @@
       <c r="E37">
         <v>3</v>
       </c>
-      <c r="F37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>233</v>
+      </c>
       <c r="G37" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="H37" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="J37" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2319,10 +2478,10 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="C38" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -2330,16 +2489,20 @@
       <c r="E38">
         <v>3</v>
       </c>
-      <c r="F38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="G38" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H38" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>241</v>
+      </c>
       <c r="I38" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="J38" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" spans="1:10">
@@ -2347,27 +2510,31 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="C39" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39">
-        <v>3</v>
-      </c>
-      <c r="F39" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="G39" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H39" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>248</v>
+      </c>
       <c r="I39" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="J39" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2375,10 +2542,10 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="C40" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -2386,16 +2553,20 @@
       <c r="E40">
         <v>2</v>
       </c>
-      <c r="F40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G40" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="H40" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>253</v>
+      </c>
       <c r="I40" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J40" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2403,10 +2574,10 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="C41" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -2414,16 +2585,20 @@
       <c r="E41">
         <v>3</v>
       </c>
-      <c r="F41" s="2"/>
+      <c r="F41" s="2" t="s">
+        <v>257</v>
+      </c>
       <c r="G41" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H41" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="I41" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="J41" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2431,10 +2606,10 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="C42" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -2442,13 +2617,17 @@
       <c r="E42">
         <v>1</v>
       </c>
-      <c r="F42" s="2"/>
+      <c r="F42" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="G42" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="H42" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>264</v>
+      </c>
       <c r="J42" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" ht="17.25" spans="1:10">
@@ -2456,10 +2635,10 @@
         <v>40</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="C43" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -2467,13 +2646,17 @@
       <c r="E43">
         <v>4</v>
       </c>
-      <c r="F43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>268</v>
+      </c>
       <c r="G43" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H43" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>270</v>
+      </c>
       <c r="J43" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2481,10 +2664,10 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="C44" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -2492,13 +2675,17 @@
       <c r="E44">
         <v>2</v>
       </c>
-      <c r="F44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="G44" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="H44" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="J44" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2506,10 +2693,10 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="C45" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -2517,24 +2704,31 @@
       <c r="E45">
         <v>2</v>
       </c>
-      <c r="F45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="G45" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="H45" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>278</v>
+      </c>
       <c r="I45" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="J45" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>43</v>
+      </c>
       <c r="B46" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="C46" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="D46">
         <v>7</v>
@@ -2543,21 +2737,24 @@
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>283</v>
       </c>
       <c r="G46" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="H46" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>44</v>
+      </c>
       <c r="B47" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="C47" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="D47">
         <v>7</v>
@@ -2565,11 +2762,14 @@
       <c r="E47">
         <v>1</v>
       </c>
+      <c r="F47" t="s">
+        <v>288</v>
+      </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H47" t="s">
-        <v>254</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/Excel/EquipConfig.xlsx
+++ b/Assets/Resources/Configs/Excel/EquipConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18480" windowHeight="7440"/>
+    <workbookView windowWidth="18240" windowHeight="6920"/>
   </bookViews>
   <sheets>
     <sheet name="Equip" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293">
   <si>
     <t>道具id</t>
   </si>
@@ -37,6 +37,9 @@
     <t>出售价格</t>
   </si>
   <si>
+    <t>攻击距离</t>
+  </si>
+  <si>
     <t>装备属性</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
     <t>sellPrice</t>
   </si>
   <si>
+    <t>AttacDis</t>
+  </si>
+  <si>
     <t>attr</t>
   </si>
   <si>
@@ -82,6 +88,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>倒刺棍棒</t>
   </si>
   <si>
@@ -166,7 +175,7 @@
     <t>以普通铁打造，弧形的护手设计独特，不仅美观，还能在战斗中更好地保护持剑者的手部</t>
   </si>
   <si>
-    <t>刺客铠甲）</t>
+    <t>刺客铠甲</t>
   </si>
   <si>
     <t>FantasyHeroes.Basic.Armor.AssassinArmor [Paint]</t>
@@ -610,7 +619,7 @@
     <t>这是一柄专为潜行与突袭设计的短刃，剑身通体呈暗黑色（经特殊防锈涂层处理），刃口打磨得薄而锋利，宛如暗影中探出的野兽獠牙，挥动时几乎不反射光线，能完美融入昏暗环境。剑柄采用防滑的黑色鲛皮包裹，贴合手掌且不易打滑，尾部还配有细小的挂环（可系在腰后或靴中，方便快速拔取）。它没有长剑的威慑力，却胜在便携与隐秘，适合刺客、斥候或偏好偷袭战术的冒险者 —— 无论是穿梭于密林中突袭猎物，还是在巷战中近距离破敌，都能借助 “暗影” 的隐蔽性，让 “獠牙” 般的刃口精准命中要害，是暗战中的致命利器。</t>
   </si>
   <si>
-    <t>神圣龙骑剑Extensions.Legendary.MeleeWeapon1H.DivineDragoonSword</t>
+    <t>神圣龙骑剑</t>
   </si>
   <si>
     <t>Extensions.Legendary.MeleeWeaponIH.DivineDragoonSword</t>
@@ -712,7 +721,10 @@
     <t>这是阿杰罗王国王子的专属束发冠，专为王子日常束发造型设计 —— 冠身以温润的赤金打造，轮廓贴合束发后的头顶弧度，不会挤压发髻，两侧还暗藏细小的银质发扣，可悄悄固定束发的发带，既保证佩戴稳固，又不破坏整体精致感</t>
   </si>
   <si>
-    <t>怜悯王冠Extensions.Legendary.Helmet.CrownOfCompassion [FullHair]</t>
+    <t>怜悯王冠</t>
+  </si>
+  <si>
+    <t>Extensions.Legendary.Helmet.CrownOfCompassion [FullHair]</t>
   </si>
   <si>
     <t>1*1*1900</t>
@@ -888,10 +900,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -948,7 +960,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -958,8 +970,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1304,22 +1322,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="63.75" customWidth="1"/>
+    <col min="2" max="2" width="71.5" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
     <col min="4" max="4" width="9.875" customWidth="1"/>
     <col min="5" max="5" width="8.875" customWidth="1"/>
-    <col min="8" max="8" width="34.125" customWidth="1"/>
-    <col min="9" max="9" width="17.125" customWidth="1"/>
+    <col min="9" max="9" width="34.125" customWidth="1"/>
+    <col min="10" max="10" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1344,86 +1363,95 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
         <v>18</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="J2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1">
         <v>7</v>
@@ -1432,30 +1460,33 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1.72</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1">
         <v>7</v>
@@ -1464,30 +1495,33 @@
         <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>37</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1">
         <v>7</v>
@@ -1496,30 +1530,33 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1.72</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>44</v>
+      </c>
+      <c r="K6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1">
         <v>7</v>
@@ -1528,30 +1565,33 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1.72</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>51</v>
+      </c>
+      <c r="K7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1560,30 +1600,33 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" t="s">
-        <v>53</v>
+        <v>28</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1.72</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>56</v>
+      </c>
+      <c r="K8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1592,30 +1635,31 @@
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="J9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>63</v>
+      </c>
+      <c r="K9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1624,30 +1668,31 @@
         <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="J10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>70</v>
+      </c>
+      <c r="K10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1656,30 +1701,31 @@
         <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="J11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>76</v>
+      </c>
+      <c r="K11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1688,30 +1734,31 @@
         <v>2</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="J12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>83</v>
+      </c>
+      <c r="K12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1720,30 +1767,31 @@
         <v>2</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="J13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>90</v>
+      </c>
+      <c r="K13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1752,30 +1800,31 @@
         <v>3</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I14" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="J14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>97</v>
+      </c>
+      <c r="K14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1784,30 +1833,31 @@
         <v>2</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I15" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="J15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>104</v>
+      </c>
+      <c r="K15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1816,30 +1866,31 @@
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I16" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="J16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>111</v>
+      </c>
+      <c r="K16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1848,30 +1899,31 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I17" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="J17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="K17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1880,30 +1932,31 @@
         <v>3</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I18" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="J18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" ht="17.25" spans="1:10">
+        <v>125</v>
+      </c>
+      <c r="K18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" ht="17.25" spans="1:11">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C19" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D19">
         <v>7</v>
@@ -1912,30 +1965,33 @@
         <v>3</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="I19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J19" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="H19" s="3">
+        <v>1.72</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J19" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C20" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1944,30 +2000,31 @@
         <v>3</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I20" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="J20" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>139</v>
+      </c>
+      <c r="K20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1976,30 +2033,31 @@
         <v>3</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="I21" t="s">
-        <v>141</v>
+        <v>123</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="J21" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="K21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C22" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D22">
         <v>7</v>
@@ -2008,27 +2066,30 @@
         <v>2</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J22" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>149</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C23" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D23">
         <v>7</v>
@@ -2037,30 +2098,33 @@
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I23" t="s">
-        <v>153</v>
+        <v>130</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="J23" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>156</v>
+      </c>
+      <c r="K23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C24" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D24">
         <v>7</v>
@@ -2069,30 +2133,33 @@
         <v>1</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="I24" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="J24" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>163</v>
+      </c>
+      <c r="K24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C25" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D25">
         <v>7</v>
@@ -2101,30 +2168,33 @@
         <v>2</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="I25" t="s">
-        <v>165</v>
+        <v>149</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="J25" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>168</v>
+      </c>
+      <c r="K25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C26" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D26">
         <v>7</v>
@@ -2133,27 +2203,30 @@
         <v>2</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" ht="17.25" spans="1:10">
+        <v>173</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="K26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" ht="17.25" spans="1:11">
       <c r="A27">
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C27" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D27">
         <v>7</v>
@@ -2162,30 +2235,33 @@
         <v>2</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="I27" t="s">
-        <v>178</v>
-      </c>
-      <c r="J27" s="3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="H27" s="3">
+        <v>1.72</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J27" t="s">
+        <v>181</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C28" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D28">
         <v>7</v>
@@ -2194,27 +2270,30 @@
         <v>4</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J28" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="29" ht="17.25" spans="1:10">
+        <v>186</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1.72</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" ht="17.25" spans="1:11">
       <c r="A29">
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D29">
         <v>7</v>
@@ -2223,27 +2302,30 @@
         <v>2</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>192</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C30" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D30">
         <v>7</v>
@@ -2252,27 +2334,30 @@
         <v>3</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="J30" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>198</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="K30" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C31" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D31">
         <v>7</v>
@@ -2281,27 +2366,30 @@
         <v>3</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="J31" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>204</v>
+      </c>
+      <c r="H31" s="3">
+        <v>1.72</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K31" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C32" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2310,30 +2398,31 @@
         <v>1</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="I32" t="s">
-        <v>108</v>
+        <v>49</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="J32" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>111</v>
+      </c>
+      <c r="K32" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C33" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2342,30 +2431,31 @@
         <v>1</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="I33" t="s">
-        <v>211</v>
+        <v>28</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="J33" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="34" ht="17.25" spans="1:10">
+        <v>214</v>
+      </c>
+      <c r="K33" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" ht="17.25" spans="1:11">
       <c r="A34">
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C34" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2374,30 +2464,31 @@
         <v>2</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="I34" t="s">
-        <v>218</v>
-      </c>
-      <c r="J34" s="3" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="H34" s="3"/>
+      <c r="I34" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J34" t="s">
+        <v>221</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C35" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2406,27 +2497,28 @@
         <v>1</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="J35" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="36" ht="17.25" spans="1:10">
+        <v>226</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="K35" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="36" ht="17.25" spans="1:11">
       <c r="A36">
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C36" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2435,24 +2527,28 @@
         <v>2</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>232</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>232</v>
+        <v>235</v>
+      </c>
+      <c r="C37" t="s">
+        <v>236</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -2461,27 +2557,28 @@
         <v>3</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="J37" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>238</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K37" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C38" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -2490,30 +2587,31 @@
         <v>3</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="I38" t="s">
-        <v>242</v>
+        <v>244</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="J38" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="39" ht="15" customHeight="1" spans="1:10">
+        <v>246</v>
+      </c>
+      <c r="K38" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="39" ht="15" customHeight="1" spans="1:11">
       <c r="A39">
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C39" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -2522,30 +2620,31 @@
         <v>4</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="I39" t="s">
-        <v>249</v>
+        <v>251</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="J39" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>253</v>
+      </c>
+      <c r="K39" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C40" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -2554,30 +2653,31 @@
         <v>2</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I40" t="s">
-        <v>115</v>
+        <v>123</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="J40" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="K40" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C41" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -2586,30 +2686,31 @@
         <v>3</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="I41" t="s">
-        <v>260</v>
+        <v>262</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="J41" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>264</v>
+      </c>
+      <c r="K41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C42" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -2618,27 +2719,28 @@
         <v>1</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="J42" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="43" ht="17.25" spans="1:10">
+        <v>49</v>
+      </c>
+      <c r="H42" s="3"/>
+      <c r="I42" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="K42" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="43" ht="17.25" spans="1:11">
       <c r="A43">
         <v>40</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>266</v>
+      <c r="B43" s="4" t="s">
+        <v>270</v>
       </c>
       <c r="C43" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -2647,27 +2749,28 @@
         <v>4</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J43" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>273</v>
+      </c>
+      <c r="H43" s="3"/>
+      <c r="I43" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K43" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C44" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -2676,27 +2779,28 @@
         <v>2</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="J44" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>109</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K44" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C45" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -2705,30 +2809,31 @@
         <v>2</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I45" t="s">
-        <v>279</v>
+        <v>262</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="J45" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>283</v>
+      </c>
+      <c r="K45" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C46" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D46">
         <v>7</v>
@@ -2737,24 +2842,27 @@
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G46" t="s">
-        <v>284</v>
-      </c>
-      <c r="H46" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>288</v>
+      </c>
+      <c r="H46" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="I46" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C47" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D47">
         <v>7</v>
@@ -2763,13 +2871,16 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G47" t="s">
-        <v>39</v>
-      </c>
-      <c r="H47" t="s">
-        <v>159</v>
+        <v>42</v>
+      </c>
+      <c r="H47" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="I47" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/Excel/EquipConfig.xlsx
+++ b/Assets/Resources/Configs/Excel/EquipConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18240" windowHeight="6920"/>
+    <workbookView windowWidth="28680" windowHeight="12620"/>
   </bookViews>
   <sheets>
     <sheet name="Equip" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296">
   <si>
     <t>道具id</t>
   </si>
@@ -43,6 +43,9 @@
     <t>装备属性</t>
   </si>
   <si>
+    <t>获取途径</t>
+  </si>
+  <si>
     <t>合成途径</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
     <t>attr</t>
   </si>
   <si>
+    <t>ways</t>
+  </si>
+  <si>
     <t>synthesisRoute</t>
   </si>
   <si>
@@ -127,6 +133,9 @@
     <t>0*12||3*0.3||5*0.1</t>
   </si>
   <si>
+    <t>1,2,4</t>
+  </si>
+  <si>
     <t>1*2||2*4</t>
   </si>
   <si>
@@ -241,7 +250,7 @@
     <t>4*1*125</t>
   </si>
   <si>
-    <t>4*5||1*15||0+2||2*-0.1</t>
+    <t>4*5||1*15||0*2||2*-0.1</t>
   </si>
   <si>
     <t>1*2||2*10</t>
@@ -577,7 +586,7 @@
     <t>4*1*1400</t>
   </si>
   <si>
-    <t>0*62||3*-0.15||5*0.08||*60.18||2*0.11</t>
+    <t>0*62||3*-0.15||5*0.08||6*0.18||2*0.11</t>
   </si>
   <si>
     <t>剑身以清冷的苍蓝色为基底，靠近剑柄的位置雕刻着展开的羽翼纹路，纹路边缘还嵌有细碎的银线，在光线下会泛着淡淡的光泽，仿佛振翅欲飞的苍色羽翼。剑柄采用温润的白木制成，与苍蓝剑身形成柔和对比，握持时手感轻盈且稳。此剑虽无极致锋利，却胜在挥动时灵动流畅，适合偏好敏捷招式的使用者，无论是林间穿梭斩敌，还是应对快速袭来的敌人，都能借助其 “翼” 般的轻巧感，打出利落的攻防。</t>
@@ -598,7 +607,7 @@
     <t>0*14||3*-0.1||5*0.03</t>
   </si>
   <si>
-    <t>这是骑士骑士为骑士设计的短款佩剑，剑身比常规骑士剑略短，更适合在马背上或狭窄空间中快速挥刺。剑身表面采用哑光涂装工艺，底色为深灰，两侧各有一道斜向的暗红纹章（类似骑士家族的简化徽记），既避免了金属反光暴露位置，又通过涂装彰显身份。剑柄裹着防滑皮革，末端有小巧的配重球，确保劈砍时重心稳定。虽无华丽装饰，但涂装与短刃设计完美适配骑士的实战需求，无论是冲锋时的辅助攻击，还是近战中的快速格挡，都能发挥可靠作用，是见习骑士或轻装骑士的常用配剑。</t>
+    <t>这是为骑士设计的短款佩剑，剑身比常规骑士剑略短，更适合在马背上或狭窄空间中快速挥刺。剑身表面采用哑光涂装工艺，底色为深灰，两侧各有一道斜向的暗红纹章（类似骑士家族的简化徽记），既避免了金属反光暴露位置，又通过涂装彰显身份。剑柄裹着防滑皮革，末端有小巧的配重球，确保劈砍时重心稳定。虽无华丽装饰，但涂装与短刃设计完美适配骑士的实战需求，无论是冲锋时的辅助攻击，还是近战中的快速格挡，都能发挥可靠作用，是见习骑士或轻装骑士的常用配剑。</t>
   </si>
   <si>
     <t>暗影獠牙刃</t>
@@ -613,7 +622,7 @@
     <t>4*1*1900</t>
   </si>
   <si>
-    <t>0*32||3-0.12||5*0.06||2*0.09</t>
+    <t>0*32||3*-0.12||5*0.06||2*0.09</t>
   </si>
   <si>
     <t>这是一柄专为潜行与突袭设计的短刃，剑身通体呈暗黑色（经特殊防锈涂层处理），刃口打磨得薄而锋利，宛如暗影中探出的野兽獠牙，挥动时几乎不反射光线，能完美融入昏暗环境。剑柄采用防滑的黑色鲛皮包裹，贴合手掌且不易打滑，尾部还配有细小的挂环（可系在腰后或靴中，方便快速拔取）。它没有长剑的威慑力，却胜在便携与隐秘，适合刺客、斥候或偏好偷袭战术的冒险者 —— 无论是穿梭于密林中突袭猎物，还是在巷战中近距离破敌，都能借助 “暗影” 的隐蔽性，让 “獠牙” 般的刃口精准命中要害，是暗战中的致命利器。</t>
@@ -960,7 +969,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -973,11 +982,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1322,10 +1337,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1335,10 +1350,12 @@
     <col min="4" max="4" width="9.875" customWidth="1"/>
     <col min="5" max="5" width="8.875" customWidth="1"/>
     <col min="9" max="9" width="34.125" customWidth="1"/>
-    <col min="10" max="10" width="17.125" customWidth="1"/>
+    <col min="10" max="10" width="9.375" customWidth="1"/>
+    <col min="11" max="11" width="17.125" customWidth="1"/>
+    <col min="12" max="12" width="533.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1366,92 +1383,101 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
         <v>20</v>
       </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="K2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1">
         <v>7</v>
@@ -1460,33 +1486,36 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H4" s="3">
         <v>1.72</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="J4" s="6">
+        <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1">
         <v>7</v>
@@ -1495,33 +1524,36 @@
         <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H5" s="3">
         <v>1.3</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>40</v>
+      </c>
+      <c r="L5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1">
         <v>7</v>
@@ -1530,33 +1562,36 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H6" s="3">
         <v>1.72</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>47</v>
+      </c>
+      <c r="L6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D7" s="1">
         <v>7</v>
@@ -1565,33 +1600,36 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H7" s="3">
         <v>1.72</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>54</v>
+      </c>
+      <c r="L7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1600,33 +1638,36 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H8" s="3">
         <v>1.72</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>59</v>
+      </c>
+      <c r="L8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1635,31 +1676,34 @@
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1668,31 +1712,34 @@
         <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J10" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>73</v>
+      </c>
+      <c r="L10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1701,31 +1748,34 @@
         <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J11" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>79</v>
+      </c>
+      <c r="L11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1734,31 +1784,34 @@
         <v>2</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J12" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>86</v>
+      </c>
+      <c r="L12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1767,31 +1820,34 @@
         <v>2</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J13" t="s">
-        <v>90</v>
+        <v>92</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>93</v>
+      </c>
+      <c r="L13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1800,31 +1856,34 @@
         <v>3</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="J14" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>100</v>
+      </c>
+      <c r="L14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1833,31 +1892,34 @@
         <v>2</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J15" t="s">
-        <v>104</v>
+        <v>106</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>107</v>
+      </c>
+      <c r="L15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1866,31 +1928,34 @@
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J16" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>114</v>
+      </c>
+      <c r="L16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1899,31 +1964,34 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="J17" t="s">
-        <v>118</v>
+        <v>120</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>121</v>
+      </c>
+      <c r="L17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1932,31 +2000,34 @@
         <v>3</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J18" t="s">
-        <v>125</v>
+        <v>127</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K18" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" ht="17.25" spans="1:11">
+        <v>128</v>
+      </c>
+      <c r="L18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" ht="17.25" spans="1:12">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D19">
         <v>7</v>
@@ -1965,33 +2036,36 @@
         <v>3</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H19" s="3">
         <v>1.72</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J19" t="s">
-        <v>132</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>134</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" t="s">
+        <v>135</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2000,31 +2074,34 @@
         <v>3</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J20" t="s">
-        <v>139</v>
+        <v>141</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K20" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>142</v>
+      </c>
+      <c r="L20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C21" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2033,31 +2110,34 @@
         <v>3</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="J21" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>147</v>
+      </c>
+      <c r="L21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C22" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D22">
         <v>7</v>
@@ -2066,30 +2146,33 @@
         <v>2</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H22" s="3">
         <v>1.3</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K22" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>153</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C23" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D23">
         <v>7</v>
@@ -2098,33 +2181,36 @@
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H23" s="3">
         <v>1.5</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="J23" t="s">
-        <v>156</v>
+        <v>158</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K23" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>159</v>
+      </c>
+      <c r="L23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C24" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D24">
         <v>7</v>
@@ -2133,33 +2219,36 @@
         <v>1</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H24" s="3">
         <v>1.5</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="J24" t="s">
-        <v>163</v>
+        <v>165</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K24" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>166</v>
+      </c>
+      <c r="L24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C25" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D25">
         <v>7</v>
@@ -2168,33 +2257,36 @@
         <v>2</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H25" s="3">
         <v>1.5</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="J25" t="s">
-        <v>168</v>
+        <v>170</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K25" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>171</v>
+      </c>
+      <c r="L25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C26" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D26">
         <v>7</v>
@@ -2203,30 +2295,33 @@
         <v>2</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H26" s="3">
         <v>1.5</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="K26" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="27" ht="17.25" spans="1:11">
+        <v>177</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" ht="17.25" spans="1:12">
       <c r="A27">
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C27" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D27">
         <v>7</v>
@@ -2235,33 +2330,36 @@
         <v>2</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H27" s="3">
         <v>1.72</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="J27" t="s">
-        <v>181</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>183</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27" t="s">
+        <v>184</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C28" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D28">
         <v>7</v>
@@ -2270,30 +2368,33 @@
         <v>4</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H28" s="3">
         <v>1.72</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="K28" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="29" ht="17.25" spans="1:11">
+        <v>190</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C29" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D29">
         <v>7</v>
@@ -2302,30 +2403,33 @@
         <v>2</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H29" s="3">
         <v>1.5</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>196</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C30" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D30">
         <v>7</v>
@@ -2334,30 +2438,33 @@
         <v>3</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H30" s="3">
         <v>1.6</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="K30" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>202</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C31" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D31">
         <v>7</v>
@@ -2366,30 +2473,33 @@
         <v>3</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H31" s="3">
         <v>1.72</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="K31" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>208</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C32" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2398,31 +2508,34 @@
         <v>1</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="J32" t="s">
-        <v>111</v>
+        <v>212</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K32" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>114</v>
+      </c>
+      <c r="L32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C33" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2431,31 +2544,34 @@
         <v>1</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="J33" t="s">
-        <v>214</v>
+        <v>216</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K33" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="34" ht="17.25" spans="1:11">
+        <v>217</v>
+      </c>
+      <c r="L33" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" ht="17.25" spans="1:12">
       <c r="A34">
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C34" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2464,31 +2580,34 @@
         <v>2</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="J34" t="s">
-        <v>221</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>223</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" t="s">
+        <v>224</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C35" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2497,28 +2616,31 @@
         <v>1</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="K35" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="36" ht="17.25" spans="1:11">
+        <v>230</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L35" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" ht="17.25" spans="1:12">
       <c r="A36">
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C36" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2527,28 +2649,31 @@
         <v>2</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>236</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C37" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -2557,28 +2682,31 @@
         <v>3</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="K37" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>242</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L37" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C38" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -2587,31 +2715,34 @@
         <v>3</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="J38" t="s">
-        <v>246</v>
+        <v>248</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K38" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="39" ht="15" customHeight="1" spans="1:11">
+        <v>249</v>
+      </c>
+      <c r="L38" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39" ht="15" customHeight="1" spans="1:12">
       <c r="A39">
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C39" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -2620,31 +2751,34 @@
         <v>4</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="J39" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K39" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>256</v>
+      </c>
+      <c r="L39" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40">
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C40" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -2653,31 +2787,34 @@
         <v>2</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="J40" t="s">
-        <v>118</v>
+        <v>260</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K40" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>121</v>
+      </c>
+      <c r="L40" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41">
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C41" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -2686,31 +2823,34 @@
         <v>3</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="J41" t="s">
-        <v>264</v>
+        <v>266</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K41" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>267</v>
+      </c>
+      <c r="L41" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42">
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C42" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -2719,28 +2859,31 @@
         <v>1</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="K42" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="43" ht="17.25" spans="1:11">
+        <v>271</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L42" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43">
         <v>40</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C43" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -2749,28 +2892,31 @@
         <v>4</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="K43" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>277</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L43" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44">
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C44" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -2779,28 +2925,31 @@
         <v>2</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="K44" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>281</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L44" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45">
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C45" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -2809,31 +2958,34 @@
         <v>2</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="J45" t="s">
-        <v>283</v>
+        <v>285</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K45" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>286</v>
+      </c>
+      <c r="L45" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C46" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D46">
         <v>7</v>
@@ -2842,27 +2994,30 @@
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G46" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="H46" s="5">
         <v>1.6</v>
       </c>
       <c r="I46" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>292</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C47" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D47">
         <v>7</v>
@@ -2871,16 +3026,19 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G47" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H47" s="5">
         <v>1.6</v>
       </c>
       <c r="I47" t="s">
-        <v>162</v>
+        <v>165</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
